--- a/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.20172977201387</v>
+        <v>14.20172977201396</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.963483572368842</v>
+        <v>6.963483572368932</v>
       </c>
       <c r="E2">
-        <v>8.617689308707902</v>
+        <v>8.617689308708048</v>
       </c>
       <c r="F2">
-        <v>56.77590597026155</v>
+        <v>56.77590597026182</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>12.56288361419619</v>
+        <v>12.56288361419614</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>48.15504143714107</v>
+        <v>48.15504143714124</v>
       </c>
       <c r="K2">
-        <v>36.54745173958248</v>
+        <v>36.54745173958256</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.21203971988512</v>
+        <v>13.21203971988509</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.362153106330454</v>
+        <v>6.362153106330445</v>
       </c>
       <c r="E3">
-        <v>8.148199689368941</v>
+        <v>8.148199689368926</v>
       </c>
       <c r="F3">
-        <v>52.18333292401657</v>
+        <v>52.18333292401663</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>12.91923379073397</v>
+        <v>12.91923379073399</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>44.47298056216809</v>
+        <v>44.47298056216805</v>
       </c>
       <c r="K3">
-        <v>33.68689465189991</v>
+        <v>33.68689465189995</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.57593764284651</v>
+        <v>12.57593764284653</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.088335700678519</v>
+        <v>6.088335700678528</v>
       </c>
       <c r="E4">
-        <v>7.861527748437464</v>
+        <v>7.861527748437457</v>
       </c>
       <c r="F4">
-        <v>49.3332511459777</v>
+        <v>49.33325114597771</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13.17036006191742</v>
+        <v>13.17036006191733</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>42.1395987358148</v>
+        <v>42.13959873581484</v>
       </c>
       <c r="K4">
-        <v>31.87887467328726</v>
+        <v>31.87887467328731</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.30931591702604</v>
+        <v>12.30931591702605</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -535,25 +535,25 @@
         <v>5.9793845162105</v>
       </c>
       <c r="E5">
-        <v>7.744698672273222</v>
+        <v>7.744698672273223</v>
       </c>
       <c r="F5">
-        <v>48.16165613033044</v>
+        <v>48.16165613033056</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13.27959714360928</v>
+        <v>13.27959714360934</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>41.16852666755787</v>
+        <v>41.16852666755789</v>
       </c>
       <c r="K5">
-        <v>31.12750848103767</v>
+        <v>31.12750848103766</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.26458965905144</v>
+        <v>12.26458965905141</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.961444550356656</v>
+        <v>5.961444550356623</v>
       </c>
       <c r="E6">
-        <v>7.72528899461546</v>
+        <v>7.72528899461547</v>
       </c>
       <c r="F6">
-        <v>47.9664389161198</v>
+        <v>47.96643891611961</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13.29812181094715</v>
+        <v>13.29812181094709</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>41.00601050575462</v>
+        <v>41.00601050575447</v>
       </c>
       <c r="K6">
-        <v>31.00182244645984</v>
+        <v>31.00182244645971</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.57237217905698</v>
+        <v>12.57237217905706</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.086856049607448</v>
+        <v>6.086856049607449</v>
       </c>
       <c r="E7">
-        <v>7.859952640527094</v>
+        <v>7.859952640527093</v>
       </c>
       <c r="F7">
-        <v>49.31749460565045</v>
+        <v>49.31749460565055</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13.17180675735629</v>
+        <v>13.17180675735611</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>42.12658662658551</v>
+        <v>42.12658662658559</v>
       </c>
       <c r="K7">
-        <v>31.86880244215607</v>
+        <v>31.86880244215608</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.86621561665268</v>
+        <v>13.86621561665272</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.748739126846992</v>
+        <v>6.748739126847088</v>
       </c>
       <c r="E8">
-        <v>8.455191680936821</v>
+        <v>8.455191680936883</v>
       </c>
       <c r="F8">
-        <v>55.19686525352998</v>
+        <v>55.19686525352995</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>46.89923460797893</v>
       </c>
       <c r="K8">
-        <v>35.57078267537355</v>
+        <v>35.57078267537351</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.192579191484</v>
+        <v>16.19257919148395</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.318722560824048</v>
+        <v>8.318722560823996</v>
       </c>
       <c r="E9">
-        <v>9.662127976755665</v>
+        <v>9.662127976755741</v>
       </c>
       <c r="F9">
-        <v>66.65365649986403</v>
+        <v>66.65365649986437</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.04040259812416</v>
+        <v>12.04040259812421</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>55.79684542027316</v>
+        <v>55.79684542027336</v>
       </c>
       <c r="K9">
-        <v>42.51434275547341</v>
+        <v>42.51434275547358</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -722,28 +722,28 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.537217658518644</v>
+        <v>9.537217658518562</v>
       </c>
       <c r="E10">
-        <v>10.6324527434062</v>
+        <v>10.63245274340611</v>
       </c>
       <c r="F10">
-        <v>75.38097233339636</v>
+        <v>75.38097233339637</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11.91497434849813</v>
+        <v>11.91497434849811</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>62.27970319798752</v>
+        <v>62.2797031979875</v>
       </c>
       <c r="K10">
-        <v>47.60806383566133</v>
+        <v>47.60806383566135</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.52172853457452</v>
+        <v>18.52172853457447</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.12861462556922</v>
+        <v>10.12861462556911</v>
       </c>
       <c r="E11">
-        <v>11.11654481419933</v>
+        <v>11.1165448141993</v>
       </c>
       <c r="F11">
-        <v>79.5572080378921</v>
+        <v>79.55720803789191</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11.98067117512201</v>
+        <v>11.98067117512205</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>65.30256740064382</v>
+        <v>65.30256740064371</v>
       </c>
       <c r="K11">
-        <v>49.99267699326444</v>
+        <v>49.99267699326438</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.79420598404415</v>
+        <v>18.79420598404413</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.36118177022356</v>
+        <v>10.36118177022367</v>
       </c>
       <c r="E12">
-        <v>11.3096755470858</v>
+        <v>11.30967554708585</v>
       </c>
       <c r="F12">
-        <v>81.1881878320758</v>
+        <v>81.18818783207585</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12.02921198983496</v>
+        <v>12.02921198983504</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>66.46997196539681</v>
+        <v>66.46997196539684</v>
       </c>
       <c r="K12">
-        <v>50.91509241826289</v>
+        <v>50.91509241826291</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.73550527670717</v>
+        <v>18.7355052767071</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.31063809044453</v>
+        <v>10.31063809044458</v>
       </c>
       <c r="E13">
-        <v>11.26756133919465</v>
+        <v>11.26756133919487</v>
       </c>
       <c r="F13">
-        <v>80.83428309923939</v>
+        <v>80.83428309923984</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12.01758302043874</v>
+        <v>12.01758302043877</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>66.21727255801356</v>
+        <v>66.21727255801383</v>
       </c>
       <c r="K13">
-        <v>50.71535612705888</v>
+        <v>50.71535612705909</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.54414043288658</v>
+        <v>18.5441404328866</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.14754987664706</v>
+        <v>10.1475498766471</v>
       </c>
       <c r="E14">
-        <v>11.13220795841982</v>
+        <v>11.13220795841972</v>
       </c>
       <c r="F14">
-        <v>79.69024289328296</v>
+        <v>79.69024289328304</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11.98414731148804</v>
+        <v>11.98414731148807</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>65.39806169431191</v>
+        <v>65.39806169431192</v>
       </c>
       <c r="K14">
-        <v>50.06810069743865</v>
+        <v>50.06810069743871</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.04890432820013</v>
+        <v>10.0489043282001</v>
       </c>
       <c r="E15">
-        <v>11.05072487102855</v>
+        <v>11.05072487102861</v>
       </c>
       <c r="F15">
-        <v>78.99671269609944</v>
+        <v>78.99671269609945</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>64.89970101561788</v>
+        <v>64.89970101561789</v>
       </c>
       <c r="K15">
-        <v>49.67454397702211</v>
+        <v>49.6745439770221</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.75424110319781</v>
+        <v>17.7542411031978</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.499557957418663</v>
+        <v>9.499557957418665</v>
       </c>
       <c r="E16">
-        <v>10.60194411315576</v>
+        <v>10.60194411315582</v>
       </c>
       <c r="F16">
-        <v>75.11366558562609</v>
+        <v>75.11366558562617</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11.91361480028487</v>
+        <v>11.91361480028485</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>62.08453371012232</v>
+        <v>62.08453371012227</v>
       </c>
       <c r="K16">
-        <v>47.45430263520332</v>
+        <v>47.45430263520329</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.33938738405401</v>
+        <v>17.33938738405394</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.173903778443965</v>
+        <v>9.173903778443908</v>
       </c>
       <c r="E17">
-        <v>10.33959753404345</v>
+        <v>10.33959753404353</v>
       </c>
       <c r="F17">
         <v>72.79554841156943</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11.91594811183135</v>
+        <v>11.91594811183139</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>60.38325714732499</v>
+        <v>60.38325714732501</v>
       </c>
       <c r="K17">
-        <v>46.11504101977321</v>
+        <v>46.11504101977324</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.09957335802774</v>
+        <v>17.09957335802777</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.989824467205837</v>
+        <v>8.989824467205899</v>
       </c>
       <c r="E18">
-        <v>10.19242105578117</v>
+        <v>10.19242105578125</v>
       </c>
       <c r="F18">
-        <v>71.4800339089709</v>
+        <v>71.48003390897141</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11.92838750698732</v>
+        <v>11.92838750698733</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>59.41070426698827</v>
+        <v>59.41070426698859</v>
       </c>
       <c r="K18">
-        <v>45.35030686757451</v>
+        <v>45.35030686757472</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.01813787404132</v>
+        <v>17.01813787404129</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.927978125786469</v>
+        <v>8.927978125786453</v>
       </c>
       <c r="E19">
-        <v>10.14314663253949</v>
+        <v>10.14314663253943</v>
       </c>
       <c r="F19">
-        <v>71.03722866577431</v>
+        <v>71.03722866577438</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11.93435613294964</v>
+        <v>11.93435613294952</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>59.08216456625275</v>
+        <v>59.08216456625277</v>
       </c>
       <c r="K19">
-        <v>45.09211551599178</v>
+        <v>45.09211551599184</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.3836655933447</v>
+        <v>17.38366559334467</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.208217539752773</v>
+        <v>9.208217539752743</v>
       </c>
       <c r="E20">
-        <v>10.36711959190761</v>
+        <v>10.36711959190754</v>
       </c>
       <c r="F20">
-        <v>73.04036072171357</v>
+        <v>73.04036072171354</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11.91451460249062</v>
+        <v>11.91451460249069</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>60.56367378720219</v>
+        <v>60.56367378720212</v>
       </c>
       <c r="K20">
-        <v>46.25697557791285</v>
+        <v>46.25697557791283</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.60034177514255</v>
+        <v>18.60034177514248</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.19518349332995</v>
+        <v>10.19518349332991</v>
       </c>
       <c r="E21">
-        <v>11.17165760122377</v>
+        <v>11.17165760122398</v>
       </c>
       <c r="F21">
-        <v>80.02471638493039</v>
+        <v>80.0247163849308</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>11.99326598714853</v>
+        <v>11.99326598714858</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>65.63793709345751</v>
+        <v>65.63793709345768</v>
       </c>
       <c r="K21">
-        <v>50.25758417999538</v>
+        <v>50.25758417999552</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.39518274113135</v>
+        <v>19.39518274113129</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.89364856912552</v>
+        <v>10.89364856912559</v>
       </c>
       <c r="E22">
-        <v>11.75842093121172</v>
+        <v>11.75842093121182</v>
       </c>
       <c r="F22">
-        <v>84.8973924984065</v>
+        <v>84.89739249840662</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12.1875564875272</v>
+        <v>12.18755648752734</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>69.09834432626315</v>
+        <v>69.09834432626319</v>
       </c>
       <c r="K22">
         <v>52.99469357119511</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.97030835808491</v>
+        <v>18.97030835808497</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.51432066655468</v>
+        <v>10.51432066655452</v>
       </c>
       <c r="E23">
-        <v>11.43776896702653</v>
+        <v>11.43776896702636</v>
       </c>
       <c r="F23">
-        <v>82.25855891764333</v>
+        <v>82.25855891764294</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12.06807938058277</v>
+        <v>12.06807938058262</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>67.23219797777459</v>
+        <v>67.23219797777438</v>
       </c>
       <c r="K23">
-        <v>51.51778543806866</v>
+        <v>51.51778543806849</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.36365158572309</v>
+        <v>17.3636515857231</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.192694715031154</v>
+        <v>9.192694715031235</v>
       </c>
       <c r="E24">
-        <v>10.3546657422048</v>
+        <v>10.35466574220463</v>
       </c>
       <c r="F24">
-        <v>72.92962881990701</v>
+        <v>72.92962881990668</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11.9151285417037</v>
+        <v>11.91512854170368</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>60.48209099442487</v>
+        <v>60.48209099442469</v>
       </c>
       <c r="K24">
-        <v>46.19279133736773</v>
+        <v>46.1927913373676</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.58340593537317</v>
+        <v>15.58340593537319</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.888155845859044</v>
+        <v>7.888155845858965</v>
       </c>
       <c r="E25">
-        <v>9.326669746957391</v>
+        <v>9.326669746957364</v>
       </c>
       <c r="F25">
-        <v>63.53332512343218</v>
+        <v>63.53332512343223</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>12.16543190677791</v>
+        <v>12.16543190677793</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>53.42026656292105</v>
+        <v>53.42026656292111</v>
       </c>
       <c r="K25">
-        <v>40.65427817074653</v>
+        <v>40.65427817074656</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.20172977201396</v>
+        <v>14.20172977201387</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.963483572368932</v>
+        <v>6.963483572368842</v>
       </c>
       <c r="E2">
-        <v>8.617689308708048</v>
+        <v>8.617689308707902</v>
       </c>
       <c r="F2">
-        <v>56.77590597026182</v>
+        <v>56.77590597026155</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>12.56288361419614</v>
+        <v>12.56288361419619</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>48.15504143714124</v>
+        <v>48.15504143714107</v>
       </c>
       <c r="K2">
-        <v>36.54745173958256</v>
+        <v>36.54745173958248</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.21203971988509</v>
+        <v>13.21203971988512</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.362153106330445</v>
+        <v>6.362153106330454</v>
       </c>
       <c r="E3">
-        <v>8.148199689368926</v>
+        <v>8.148199689368941</v>
       </c>
       <c r="F3">
-        <v>52.18333292401663</v>
+        <v>52.18333292401657</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>12.91923379073399</v>
+        <v>12.91923379073397</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>44.47298056216805</v>
+        <v>44.47298056216809</v>
       </c>
       <c r="K3">
-        <v>33.68689465189995</v>
+        <v>33.68689465189991</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.57593764284653</v>
+        <v>12.57593764284651</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.088335700678528</v>
+        <v>6.088335700678519</v>
       </c>
       <c r="E4">
-        <v>7.861527748437457</v>
+        <v>7.861527748437464</v>
       </c>
       <c r="F4">
-        <v>49.33325114597771</v>
+        <v>49.3332511459777</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13.17036006191733</v>
+        <v>13.17036006191742</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>42.13959873581484</v>
+        <v>42.1395987358148</v>
       </c>
       <c r="K4">
-        <v>31.87887467328731</v>
+        <v>31.87887467328726</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.30931591702605</v>
+        <v>12.30931591702604</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -535,25 +535,25 @@
         <v>5.9793845162105</v>
       </c>
       <c r="E5">
-        <v>7.744698672273223</v>
+        <v>7.744698672273222</v>
       </c>
       <c r="F5">
-        <v>48.16165613033056</v>
+        <v>48.16165613033044</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13.27959714360934</v>
+        <v>13.27959714360928</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>41.16852666755789</v>
+        <v>41.16852666755787</v>
       </c>
       <c r="K5">
-        <v>31.12750848103766</v>
+        <v>31.12750848103767</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.26458965905141</v>
+        <v>12.26458965905144</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.961444550356623</v>
+        <v>5.961444550356656</v>
       </c>
       <c r="E6">
-        <v>7.72528899461547</v>
+        <v>7.72528899461546</v>
       </c>
       <c r="F6">
-        <v>47.96643891611961</v>
+        <v>47.9664389161198</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13.29812181094709</v>
+        <v>13.29812181094715</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>41.00601050575447</v>
+        <v>41.00601050575462</v>
       </c>
       <c r="K6">
-        <v>31.00182244645971</v>
+        <v>31.00182244645984</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.57237217905706</v>
+        <v>12.57237217905698</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.086856049607449</v>
+        <v>6.086856049607448</v>
       </c>
       <c r="E7">
-        <v>7.859952640527093</v>
+        <v>7.859952640527094</v>
       </c>
       <c r="F7">
-        <v>49.31749460565055</v>
+        <v>49.31749460565045</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13.17180675735611</v>
+        <v>13.17180675735629</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>42.12658662658559</v>
+        <v>42.12658662658551</v>
       </c>
       <c r="K7">
-        <v>31.86880244215608</v>
+        <v>31.86880244215607</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.86621561665272</v>
+        <v>13.86621561665268</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.748739126847088</v>
+        <v>6.748739126846992</v>
       </c>
       <c r="E8">
-        <v>8.455191680936883</v>
+        <v>8.455191680936821</v>
       </c>
       <c r="F8">
-        <v>55.19686525352995</v>
+        <v>55.19686525352998</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>46.89923460797893</v>
       </c>
       <c r="K8">
-        <v>35.57078267537351</v>
+        <v>35.57078267537355</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.19257919148395</v>
+        <v>16.192579191484</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.318722560823996</v>
+        <v>8.318722560824048</v>
       </c>
       <c r="E9">
-        <v>9.662127976755741</v>
+        <v>9.662127976755665</v>
       </c>
       <c r="F9">
-        <v>66.65365649986437</v>
+        <v>66.65365649986403</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.04040259812421</v>
+        <v>12.04040259812416</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>55.79684542027336</v>
+        <v>55.79684542027316</v>
       </c>
       <c r="K9">
-        <v>42.51434275547358</v>
+        <v>42.51434275547341</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -722,28 +722,28 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.537217658518562</v>
+        <v>9.537217658518644</v>
       </c>
       <c r="E10">
-        <v>10.63245274340611</v>
+        <v>10.6324527434062</v>
       </c>
       <c r="F10">
-        <v>75.38097233339637</v>
+        <v>75.38097233339636</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11.91497434849811</v>
+        <v>11.91497434849813</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>62.2797031979875</v>
+        <v>62.27970319798752</v>
       </c>
       <c r="K10">
-        <v>47.60806383566135</v>
+        <v>47.60806383566133</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.52172853457447</v>
+        <v>18.52172853457452</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.12861462556911</v>
+        <v>10.12861462556922</v>
       </c>
       <c r="E11">
-        <v>11.1165448141993</v>
+        <v>11.11654481419933</v>
       </c>
       <c r="F11">
-        <v>79.55720803789191</v>
+        <v>79.5572080378921</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11.98067117512205</v>
+        <v>11.98067117512201</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>65.30256740064371</v>
+        <v>65.30256740064382</v>
       </c>
       <c r="K11">
-        <v>49.99267699326438</v>
+        <v>49.99267699326444</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.79420598404413</v>
+        <v>18.79420598404415</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.36118177022367</v>
+        <v>10.36118177022356</v>
       </c>
       <c r="E12">
-        <v>11.30967554708585</v>
+        <v>11.3096755470858</v>
       </c>
       <c r="F12">
-        <v>81.18818783207585</v>
+        <v>81.1881878320758</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12.02921198983504</v>
+        <v>12.02921198983496</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>66.46997196539684</v>
+        <v>66.46997196539681</v>
       </c>
       <c r="K12">
-        <v>50.91509241826291</v>
+        <v>50.91509241826289</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.7355052767071</v>
+        <v>18.73550527670717</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.31063809044458</v>
+        <v>10.31063809044453</v>
       </c>
       <c r="E13">
-        <v>11.26756133919487</v>
+        <v>11.26756133919465</v>
       </c>
       <c r="F13">
-        <v>80.83428309923984</v>
+        <v>80.83428309923939</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12.01758302043877</v>
+        <v>12.01758302043874</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>66.21727255801383</v>
+        <v>66.21727255801356</v>
       </c>
       <c r="K13">
-        <v>50.71535612705909</v>
+        <v>50.71535612705888</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.5441404328866</v>
+        <v>18.54414043288658</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.1475498766471</v>
+        <v>10.14754987664706</v>
       </c>
       <c r="E14">
-        <v>11.13220795841972</v>
+        <v>11.13220795841982</v>
       </c>
       <c r="F14">
-        <v>79.69024289328304</v>
+        <v>79.69024289328296</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11.98414731148807</v>
+        <v>11.98414731148804</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>65.39806169431192</v>
+        <v>65.39806169431191</v>
       </c>
       <c r="K14">
-        <v>50.06810069743871</v>
+        <v>50.06810069743865</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.0489043282001</v>
+        <v>10.04890432820013</v>
       </c>
       <c r="E15">
-        <v>11.05072487102861</v>
+        <v>11.05072487102855</v>
       </c>
       <c r="F15">
-        <v>78.99671269609945</v>
+        <v>78.99671269609944</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>64.89970101561789</v>
+        <v>64.89970101561788</v>
       </c>
       <c r="K15">
-        <v>49.6745439770221</v>
+        <v>49.67454397702211</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.7542411031978</v>
+        <v>17.75424110319781</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.499557957418665</v>
+        <v>9.499557957418663</v>
       </c>
       <c r="E16">
-        <v>10.60194411315582</v>
+        <v>10.60194411315576</v>
       </c>
       <c r="F16">
-        <v>75.11366558562617</v>
+        <v>75.11366558562609</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11.91361480028485</v>
+        <v>11.91361480028487</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>62.08453371012227</v>
+        <v>62.08453371012232</v>
       </c>
       <c r="K16">
-        <v>47.45430263520329</v>
+        <v>47.45430263520332</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.33938738405394</v>
+        <v>17.33938738405401</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.173903778443908</v>
+        <v>9.173903778443965</v>
       </c>
       <c r="E17">
-        <v>10.33959753404353</v>
+        <v>10.33959753404345</v>
       </c>
       <c r="F17">
         <v>72.79554841156943</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11.91594811183139</v>
+        <v>11.91594811183135</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>60.38325714732501</v>
+        <v>60.38325714732499</v>
       </c>
       <c r="K17">
-        <v>46.11504101977324</v>
+        <v>46.11504101977321</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.09957335802777</v>
+        <v>17.09957335802774</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.989824467205899</v>
+        <v>8.989824467205837</v>
       </c>
       <c r="E18">
-        <v>10.19242105578125</v>
+        <v>10.19242105578117</v>
       </c>
       <c r="F18">
-        <v>71.48003390897141</v>
+        <v>71.4800339089709</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11.92838750698733</v>
+        <v>11.92838750698732</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>59.41070426698859</v>
+        <v>59.41070426698827</v>
       </c>
       <c r="K18">
-        <v>45.35030686757472</v>
+        <v>45.35030686757451</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.01813787404129</v>
+        <v>17.01813787404132</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.927978125786453</v>
+        <v>8.927978125786469</v>
       </c>
       <c r="E19">
-        <v>10.14314663253943</v>
+        <v>10.14314663253949</v>
       </c>
       <c r="F19">
-        <v>71.03722866577438</v>
+        <v>71.03722866577431</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11.93435613294952</v>
+        <v>11.93435613294964</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>59.08216456625277</v>
+        <v>59.08216456625275</v>
       </c>
       <c r="K19">
-        <v>45.09211551599184</v>
+        <v>45.09211551599178</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.38366559334467</v>
+        <v>17.3836655933447</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.208217539752743</v>
+        <v>9.208217539752773</v>
       </c>
       <c r="E20">
-        <v>10.36711959190754</v>
+        <v>10.36711959190761</v>
       </c>
       <c r="F20">
-        <v>73.04036072171354</v>
+        <v>73.04036072171357</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11.91451460249069</v>
+        <v>11.91451460249062</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>60.56367378720212</v>
+        <v>60.56367378720219</v>
       </c>
       <c r="K20">
-        <v>46.25697557791283</v>
+        <v>46.25697557791285</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.60034177514248</v>
+        <v>18.60034177514255</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.19518349332991</v>
+        <v>10.19518349332995</v>
       </c>
       <c r="E21">
-        <v>11.17165760122398</v>
+        <v>11.17165760122377</v>
       </c>
       <c r="F21">
-        <v>80.0247163849308</v>
+        <v>80.02471638493039</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>11.99326598714858</v>
+        <v>11.99326598714853</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>65.63793709345768</v>
+        <v>65.63793709345751</v>
       </c>
       <c r="K21">
-        <v>50.25758417999552</v>
+        <v>50.25758417999538</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.39518274113129</v>
+        <v>19.39518274113135</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.89364856912559</v>
+        <v>10.89364856912552</v>
       </c>
       <c r="E22">
-        <v>11.75842093121182</v>
+        <v>11.75842093121172</v>
       </c>
       <c r="F22">
-        <v>84.89739249840662</v>
+        <v>84.8973924984065</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12.18755648752734</v>
+        <v>12.1875564875272</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>69.09834432626319</v>
+        <v>69.09834432626315</v>
       </c>
       <c r="K22">
         <v>52.99469357119511</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.97030835808497</v>
+        <v>18.97030835808491</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.51432066655452</v>
+        <v>10.51432066655468</v>
       </c>
       <c r="E23">
-        <v>11.43776896702636</v>
+        <v>11.43776896702653</v>
       </c>
       <c r="F23">
-        <v>82.25855891764294</v>
+        <v>82.25855891764333</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12.06807938058262</v>
+        <v>12.06807938058277</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>67.23219797777438</v>
+        <v>67.23219797777459</v>
       </c>
       <c r="K23">
-        <v>51.51778543806849</v>
+        <v>51.51778543806866</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.3636515857231</v>
+        <v>17.36365158572309</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.192694715031235</v>
+        <v>9.192694715031154</v>
       </c>
       <c r="E24">
-        <v>10.35466574220463</v>
+        <v>10.3546657422048</v>
       </c>
       <c r="F24">
-        <v>72.92962881990668</v>
+        <v>72.92962881990701</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11.91512854170368</v>
+        <v>11.9151285417037</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>60.48209099442469</v>
+        <v>60.48209099442487</v>
       </c>
       <c r="K24">
-        <v>46.1927913373676</v>
+        <v>46.19279133736773</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.58340593537319</v>
+        <v>15.58340593537317</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.888155845858965</v>
+        <v>7.888155845859044</v>
       </c>
       <c r="E25">
-        <v>9.326669746957364</v>
+        <v>9.326669746957391</v>
       </c>
       <c r="F25">
-        <v>63.53332512343223</v>
+        <v>63.53332512343218</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>12.16543190677793</v>
+        <v>12.16543190677791</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>53.42026656292111</v>
+        <v>53.42026656292105</v>
       </c>
       <c r="K25">
-        <v>40.65427817074656</v>
+        <v>40.65427817074653</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.20172977201387</v>
+        <v>14.16521702866852</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.963483572368842</v>
+        <v>6.873433417868581</v>
       </c>
       <c r="E2">
-        <v>8.617689308707902</v>
+        <v>8.318781814516482</v>
       </c>
       <c r="F2">
-        <v>56.77590597026155</v>
+        <v>56.48576604290122</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.939506449583427</v>
       </c>
       <c r="H2">
-        <v>12.56288361419619</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12.71829250887211</v>
       </c>
       <c r="J2">
-        <v>48.15504143714107</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>36.54745173958248</v>
+        <v>47.8171795700143</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>36.32250571683748</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.21203971988512</v>
+        <v>13.177311633404</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.362153106330454</v>
+        <v>6.400922781362027</v>
       </c>
       <c r="E3">
-        <v>8.148199689368941</v>
+        <v>7.846495703651485</v>
       </c>
       <c r="F3">
-        <v>52.18333292401657</v>
+        <v>51.96185879353347</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.965263524180988</v>
       </c>
       <c r="H3">
-        <v>12.91923379073397</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.08531465662818</v>
       </c>
       <c r="J3">
-        <v>44.47298056216809</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>33.68689465189991</v>
+        <v>44.15477602783644</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>33.47811614319286</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.57593764284651</v>
+        <v>12.54222852915248</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.088335700678519</v>
+        <v>6.142541808954746</v>
       </c>
       <c r="E4">
-        <v>7.861527748437464</v>
+        <v>7.557207113421557</v>
       </c>
       <c r="F4">
-        <v>49.3332511459777</v>
+        <v>49.15687687809739</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.980942487101459</v>
       </c>
       <c r="H4">
-        <v>13.17036006191742</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>13.34198044380814</v>
       </c>
       <c r="J4">
-        <v>42.1395987358148</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>31.87887467328726</v>
+        <v>41.83288115060795</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>31.67969893323392</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.30931591702604</v>
+        <v>12.27600675812765</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.9793845162105</v>
+        <v>6.04015753412646</v>
       </c>
       <c r="E5">
-        <v>7.744698672273222</v>
+        <v>7.439099867492266</v>
       </c>
       <c r="F5">
-        <v>48.16165613033044</v>
+        <v>48.0439803959387</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.987323392677945</v>
       </c>
       <c r="H5">
-        <v>13.27959714360928</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>13.45327607650701</v>
       </c>
       <c r="J5">
-        <v>41.16852666755787</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>31.12750848103767</v>
+        <v>40.86639106358415</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>30.93220436957039</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.26458965905144</v>
+        <v>12.23134607856776</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.961444550356656</v>
+        <v>6.023324565257564</v>
       </c>
       <c r="E6">
-        <v>7.72528899461546</v>
+        <v>7.419465505929352</v>
       </c>
       <c r="F6">
-        <v>47.9664389161198</v>
+        <v>47.86403039021854</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.988383093012827</v>
       </c>
       <c r="H6">
-        <v>13.29812181094715</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>13.47213199124451</v>
       </c>
       <c r="J6">
-        <v>41.00601050575462</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>31.00182244645984</v>
+        <v>40.70463088466546</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>30.80715968750681</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.57237217905698</v>
+        <v>12.53866851695772</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.086856049607448</v>
+        <v>6.141149606748824</v>
       </c>
       <c r="E7">
-        <v>7.859952640527094</v>
+        <v>7.555615609240518</v>
       </c>
       <c r="F7">
-        <v>49.31749460565045</v>
+        <v>49.14137643066414</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.981028545675671</v>
       </c>
       <c r="H7">
-        <v>13.17180675735629</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>13.34345564045062</v>
       </c>
       <c r="J7">
-        <v>42.12658662658551</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>31.86880244215607</v>
+        <v>41.81993118389978</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>31.66967903904011</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.86621561665268</v>
+        <v>13.83033712225105</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.748739126846992</v>
+        <v>6.687466013216994</v>
       </c>
       <c r="E8">
-        <v>8.455191680936821</v>
+        <v>8.155516698376438</v>
       </c>
       <c r="F8">
-        <v>55.19686525352998</v>
+        <v>54.92988850537509</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.948432932095151</v>
       </c>
       <c r="H8">
-        <v>12.67821434728562</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.83755035127216</v>
       </c>
       <c r="J8">
-        <v>46.89923460797893</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>35.57078267537355</v>
+        <v>46.56830503859344</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>35.3515061097125</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.192579191484</v>
+        <v>16.15152618695048</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.318722560824048</v>
+        <v>8.205181955580818</v>
       </c>
       <c r="E9">
-        <v>9.662127976755665</v>
+        <v>9.363466677231875</v>
       </c>
       <c r="F9">
-        <v>66.65365649986403</v>
+        <v>66.22366541310424</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.88190921750384</v>
       </c>
       <c r="H9">
-        <v>12.04040259812416</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.1643678280813</v>
       </c>
       <c r="J9">
-        <v>55.79684542027316</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>42.51434275547341</v>
+        <v>55.41042565196284</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>42.25033983805285</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.8014429915994</v>
+        <v>17.75527629377235</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.537217658518644</v>
+        <v>9.402743547499831</v>
       </c>
       <c r="E10">
-        <v>10.6324527434062</v>
+        <v>10.32708973799792</v>
       </c>
       <c r="F10">
-        <v>75.38097233339636</v>
+        <v>74.82440366459308</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.828407407030009</v>
       </c>
       <c r="H10">
-        <v>11.91497434849813</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>12.00035652247155</v>
       </c>
       <c r="J10">
-        <v>62.27970319798752</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>47.60806383566133</v>
+        <v>61.83982514000265</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>47.30182281554283</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.52172853457452</v>
+        <v>18.47257919428048</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.12861462556922</v>
+        <v>9.983327605086671</v>
       </c>
       <c r="E11">
-        <v>11.11654481419933</v>
+        <v>10.80526748944718</v>
       </c>
       <c r="F11">
-        <v>79.5572080378921</v>
+        <v>78.93487551807297</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.801922525265873</v>
       </c>
       <c r="H11">
-        <v>11.98067117512201</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>12.04389786428339</v>
       </c>
       <c r="J11">
-        <v>65.30256740064382</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>49.99267699326444</v>
+        <v>64.83184283909335</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>49.66225567485859</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.79420598404415</v>
+        <v>18.74376774456547</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.36118177022356</v>
+        <v>10.21142952640847</v>
       </c>
       <c r="E12">
-        <v>11.3096755470858</v>
+        <v>10.99552338500989</v>
       </c>
       <c r="F12">
-        <v>81.1881878320758</v>
+        <v>80.53866564896666</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.791424041717713</v>
       </c>
       <c r="H12">
-        <v>12.02921198983496</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>12.08314065846503</v>
       </c>
       <c r="J12">
-        <v>66.46997196539681</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>50.91509241826289</v>
+        <v>65.98597268786567</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>50.57429406113566</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.73550527670717</v>
+        <v>18.68535333879075</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.31063809044453</v>
+        <v>10.16186854619859</v>
       </c>
       <c r="E13">
-        <v>11.26756133919465</v>
+        <v>10.95406219817899</v>
       </c>
       <c r="F13">
-        <v>80.83428309923939</v>
+        <v>80.19074562731562</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.793709477069339</v>
       </c>
       <c r="H13">
-        <v>12.01758302043874</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>12.07356010445007</v>
       </c>
       <c r="J13">
-        <v>66.21727255801356</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>50.71535612705888</v>
+        <v>65.73621941636441</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>50.37685951602406</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.54414043288658</v>
+        <v>18.49488881017723</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.14754987664706</v>
+        <v>10.0019045009369</v>
       </c>
       <c r="E14">
-        <v>11.13220795841982</v>
+        <v>10.8207087904408</v>
       </c>
       <c r="F14">
-        <v>79.69024289328296</v>
+        <v>79.06572870837255</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.801069447364618</v>
       </c>
       <c r="H14">
-        <v>11.98414731148804</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>12.04662917165372</v>
       </c>
       <c r="J14">
-        <v>65.39806169431191</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>50.06810069743865</v>
+        <v>64.92628258992518</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>49.73685446305144</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.42694100029057</v>
+        <v>18.37821728812537</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.04890432820013</v>
+        <v>9.905116479729257</v>
       </c>
       <c r="E15">
-        <v>11.05072487102855</v>
+        <v>10.74035835566672</v>
       </c>
       <c r="F15">
-        <v>78.99671269609944</v>
+        <v>78.3835060506841</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.805510305639314</v>
       </c>
       <c r="H15">
-        <v>11.96696745483034</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>12.0333057480902</v>
       </c>
       <c r="J15">
-        <v>64.89970101561788</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>49.67454397702211</v>
+        <v>64.43336687843879</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>49.34755818034957</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.75424110319781</v>
+        <v>17.7082515873521</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.499557957418663</v>
+        <v>9.365751513953834</v>
       </c>
       <c r="E16">
-        <v>10.60194411315576</v>
+        <v>10.29689449753596</v>
       </c>
       <c r="F16">
-        <v>75.11366558562609</v>
+        <v>74.56115197579626</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.830083122697159</v>
       </c>
       <c r="H16">
-        <v>11.91361480028487</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>12.00033396559531</v>
       </c>
       <c r="J16">
-        <v>62.08453371012232</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>47.45430263520332</v>
+        <v>61.6464944648304</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>47.14950655500876</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.33938738405401</v>
+        <v>17.29487380993331</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.173903778443965</v>
+        <v>9.045793855813589</v>
       </c>
       <c r="E17">
-        <v>10.33959753404345</v>
+        <v>10.03696258502678</v>
       </c>
       <c r="F17">
-        <v>72.79554841156943</v>
+        <v>72.27759437281898</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.844516773420258</v>
       </c>
       <c r="H17">
-        <v>11.91594811183135</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>12.01385069231603</v>
       </c>
       <c r="J17">
-        <v>60.38325714732499</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>46.11504101977321</v>
+        <v>59.96056782709426</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>45.82232551820469</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.09957335802774</v>
+        <v>17.055852422073</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.989824467205837</v>
+        <v>8.864885004998705</v>
       </c>
       <c r="E18">
-        <v>10.19242105578117</v>
+        <v>9.890924180636592</v>
       </c>
       <c r="F18">
-        <v>71.4800339089709</v>
+        <v>70.98127982787047</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.852629391108727</v>
       </c>
       <c r="H18">
-        <v>11.92838750698732</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>12.03230803078132</v>
       </c>
       <c r="J18">
-        <v>59.41070426698827</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>45.35030686757451</v>
+        <v>58.99628462961323</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>45.06411504515404</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.01813787404132</v>
+        <v>16.97467695036555</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.927978125786469</v>
+        <v>8.804097714960612</v>
       </c>
       <c r="E19">
-        <v>10.14314663253949</v>
+        <v>9.841996442121678</v>
       </c>
       <c r="F19">
-        <v>71.03722866577431</v>
+        <v>70.54488173990775</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.855347371846144</v>
       </c>
       <c r="H19">
-        <v>11.93435613294964</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>12.04024874506545</v>
       </c>
       <c r="J19">
-        <v>59.08216456625275</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>45.09211551599178</v>
+        <v>58.67046205596985</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>44.80806976875898</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.3836655933447</v>
+        <v>17.33900105768112</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.208217539752773</v>
+        <v>9.079513141550184</v>
       </c>
       <c r="E20">
-        <v>10.36711959190761</v>
+        <v>10.06425467147221</v>
       </c>
       <c r="F20">
-        <v>73.04036072171357</v>
+        <v>72.51880363929322</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.843000787030325</v>
       </c>
       <c r="H20">
-        <v>11.91451460249062</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>12.01127098984302</v>
       </c>
       <c r="J20">
-        <v>60.56367378720219</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>46.25697557791285</v>
+        <v>60.13941164589981</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>45.96302061717591</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.60034177514255</v>
+        <v>18.55083081557998</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.19518349332995</v>
+        <v>10.04863272219805</v>
       </c>
       <c r="E21">
-        <v>11.17165760122377</v>
+        <v>10.85959093328157</v>
       </c>
       <c r="F21">
-        <v>80.02471638493039</v>
+        <v>79.39468976585385</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.798922099018594</v>
       </c>
       <c r="H21">
-        <v>11.99326598714853</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>12.05386456183419</v>
       </c>
       <c r="J21">
-        <v>65.63793709345751</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>50.25758417999538</v>
+        <v>65.16348507623947</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>49.92424751079672</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.39518274113135</v>
+        <v>19.34149468291945</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.89364856912552</v>
+        <v>10.7330507793348</v>
       </c>
       <c r="E22">
-        <v>11.75842093121172</v>
+        <v>11.43635706733201</v>
       </c>
       <c r="F22">
-        <v>84.8973924984065</v>
+        <v>84.1818146601738</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.767226140288886</v>
       </c>
       <c r="H22">
-        <v>12.1875564875272</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>12.21897552975798</v>
       </c>
       <c r="J22">
-        <v>69.09834432626315</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>52.99469357119511</v>
+        <v>68.58099479054086</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>52.62788369152713</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.97030835808491</v>
+        <v>18.91898050564765</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.51432066655468</v>
+        <v>10.36154557111605</v>
       </c>
       <c r="E23">
-        <v>11.43776896702653</v>
+        <v>11.12153877668909</v>
       </c>
       <c r="F23">
-        <v>82.25855891764333</v>
+        <v>81.59062562255957</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.784486999507776</v>
       </c>
       <c r="H23">
-        <v>12.06807938058277</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>12.11570823752868</v>
       </c>
       <c r="J23">
-        <v>67.23219797777459</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>51.51778543806866</v>
+        <v>66.73905310676062</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>51.16984619894633</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.36365158572309</v>
+        <v>17.31905546984119</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.192694715031154</v>
+        <v>9.064259393254169</v>
       </c>
       <c r="E24">
-        <v>10.3546657422048</v>
+        <v>10.05190555720463</v>
       </c>
       <c r="F24">
-        <v>72.92962881990701</v>
+        <v>72.40970268698756</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.843686731473452</v>
       </c>
       <c r="H24">
-        <v>11.9151285417037</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12.01240438860681</v>
       </c>
       <c r="J24">
-        <v>60.48209099442487</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>46.19279133736773</v>
+        <v>60.05854161399157</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>45.89939801773341</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.58340593537317</v>
+        <v>15.54390537155317</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.888155845859044</v>
+        <v>7.781919976329623</v>
       </c>
       <c r="E25">
-        <v>9.326669746957391</v>
+        <v>9.028784784100472</v>
       </c>
       <c r="F25">
-        <v>63.53332512343218</v>
+        <v>63.14712569460404</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.900437714376324</v>
       </c>
       <c r="H25">
-        <v>12.16543190677791</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12.30067903841876</v>
       </c>
       <c r="J25">
-        <v>53.42026656292105</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>40.65427817074653</v>
+        <v>53.05028869523609</v>
       </c>
       <c r="L25">
+        <v>40.40339844129665</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.16521702866852</v>
+        <v>7.298095387031174</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.873433417868581</v>
+        <v>7.670104126635493</v>
       </c>
       <c r="E2">
-        <v>8.318781814516482</v>
+        <v>5.699595483744977</v>
       </c>
       <c r="F2">
-        <v>56.48576604290122</v>
+        <v>59.87035098060714</v>
       </c>
       <c r="G2">
-        <v>1.939506449583427</v>
+        <v>1.930041267037027</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.71829250887211</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>47.8171795700143</v>
+        <v>49.28857487201006</v>
       </c>
       <c r="L2">
-        <v>36.32250571683748</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>32.41940143405611</v>
+      </c>
+      <c r="N2">
+        <v>11.05105350611528</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.177311633404</v>
+        <v>6.927707631294655</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.400922781362027</v>
+        <v>7.121216237934661</v>
       </c>
       <c r="E3">
-        <v>7.846495703651485</v>
+        <v>5.644384098089072</v>
       </c>
       <c r="F3">
-        <v>51.96185879353347</v>
+        <v>55.07882918873563</v>
       </c>
       <c r="G3">
-        <v>1.965263524180988</v>
+        <v>1.957189354149306</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.08531465662818</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>44.15477602783644</v>
+        <v>45.39413213323672</v>
       </c>
       <c r="L3">
-        <v>33.47811614319286</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>29.86996647869346</v>
+      </c>
+      <c r="N3">
+        <v>11.48259984228416</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.54222852915248</v>
+        <v>6.694727828353292</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.142541808954746</v>
+        <v>6.818193734874765</v>
       </c>
       <c r="E4">
-        <v>7.557207113421557</v>
+        <v>5.614647362940814</v>
       </c>
       <c r="F4">
-        <v>49.15687687809739</v>
+        <v>52.10722944235285</v>
       </c>
       <c r="G4">
-        <v>1.980942487101459</v>
+        <v>1.973654265274191</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.34198044380814</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>41.83288115060795</v>
+        <v>42.9378899397243</v>
       </c>
       <c r="L4">
-        <v>31.67969893323392</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>28.26224329799051</v>
+      </c>
+      <c r="N4">
+        <v>11.7439784107111</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.27600675812765</v>
+        <v>6.598482346319015</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.04015753412646</v>
+        <v>6.696912000860457</v>
       </c>
       <c r="E5">
-        <v>7.439099867492266</v>
+        <v>5.603383724357648</v>
       </c>
       <c r="F5">
-        <v>48.0439803959387</v>
+        <v>50.88589704884481</v>
       </c>
       <c r="G5">
-        <v>1.987323392677945</v>
+        <v>1.980343117488945</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.45327607650701</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>40.86639106358415</v>
+        <v>41.91813889561337</v>
       </c>
       <c r="L5">
-        <v>30.93220436957039</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27.59484157896918</v>
+      </c>
+      <c r="N5">
+        <v>11.849982208758</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.23134607856776</v>
+        <v>6.58242535538921</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.023324565257564</v>
+        <v>6.676897416342904</v>
       </c>
       <c r="E6">
-        <v>7.419465505929352</v>
+        <v>5.601560266719114</v>
       </c>
       <c r="F6">
-        <v>47.86403039021854</v>
+        <v>50.68239898385261</v>
       </c>
       <c r="G6">
-        <v>1.988383093012827</v>
+        <v>1.981453323169023</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.47213199124451</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>40.70463088466546</v>
+        <v>41.74761086536506</v>
       </c>
       <c r="L6">
-        <v>30.80715968750681</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>27.48323991894699</v>
+      </c>
+      <c r="N6">
+        <v>11.86756336374874</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.53866851695772</v>
+        <v>6.693434965142055</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.141149606748824</v>
+        <v>6.81654958555037</v>
       </c>
       <c r="E7">
-        <v>7.555615609240518</v>
+        <v>5.6144922181473</v>
       </c>
       <c r="F7">
-        <v>49.14137643066414</v>
+        <v>52.09080342154267</v>
       </c>
       <c r="G7">
-        <v>1.981028545675671</v>
+        <v>1.973744521472165</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.34345564045062</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>41.81993118389978</v>
+        <v>42.9242162928734</v>
       </c>
       <c r="L7">
-        <v>31.66967903904011</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>28.25329392938463</v>
+      </c>
+      <c r="N7">
+        <v>11.74540961433851</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.83033712225105</v>
+        <v>7.171587303372876</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.687466013216994</v>
+        <v>7.453137907486701</v>
       </c>
       <c r="E8">
-        <v>8.155516698376438</v>
+        <v>5.67956159997153</v>
       </c>
       <c r="F8">
-        <v>54.92988850537509</v>
+        <v>58.22231008040776</v>
       </c>
       <c r="G8">
-        <v>1.948432932095151</v>
+        <v>1.939464874751741</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.83755035127216</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>46.56830503859344</v>
+        <v>47.95762242978664</v>
       </c>
       <c r="L8">
-        <v>35.3515061097125</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>31.54808379744992</v>
+      </c>
+      <c r="N8">
+        <v>11.20085888433012</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.15152618695048</v>
+        <v>8.062555271294764</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.205181955580818</v>
+        <v>9.119453591157352</v>
       </c>
       <c r="E9">
-        <v>9.363466677231875</v>
+        <v>5.852710496553119</v>
       </c>
       <c r="F9">
-        <v>66.22366541310424</v>
+        <v>70.20567901962382</v>
       </c>
       <c r="G9">
-        <v>1.88190921750384</v>
+        <v>1.868771328644309</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.1643678280813</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>55.41042565196284</v>
+        <v>57.45952568114663</v>
       </c>
       <c r="L9">
-        <v>42.25033983805285</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>37.76810905611829</v>
+      </c>
+      <c r="N9">
+        <v>10.08120875118258</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.75527629377235</v>
+        <v>8.781734526414766</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.402743547499831</v>
+        <v>10.43039355384339</v>
       </c>
       <c r="E10">
-        <v>10.32708973799792</v>
+        <v>6.036015338162253</v>
       </c>
       <c r="F10">
-        <v>74.82440366459308</v>
+        <v>79.40867345131653</v>
       </c>
       <c r="G10">
-        <v>1.828407407030009</v>
+        <v>1.810879860152516</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.00035652247155</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>61.83982514000265</v>
+        <v>64.51920600530204</v>
       </c>
       <c r="L10">
-        <v>47.30182281554283</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>42.38565671593702</v>
+      </c>
+      <c r="N10">
+        <v>9.180309685453699</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.47257919428048</v>
+        <v>9.115388447005317</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.983327605086671</v>
+        <v>11.0725955047899</v>
       </c>
       <c r="E11">
-        <v>10.80526748944718</v>
+        <v>6.144139589360279</v>
       </c>
       <c r="F11">
-        <v>78.93487551807297</v>
+        <v>83.85620750323916</v>
       </c>
       <c r="G11">
-        <v>1.801922525265873</v>
+        <v>1.781716831185834</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.04389786428339</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>64.83184283909335</v>
+        <v>67.86853366624206</v>
       </c>
       <c r="L11">
-        <v>49.66225567485859</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>44.57359253119164</v>
+      </c>
+      <c r="N11">
+        <v>8.735599413166446</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.74376774456547</v>
+        <v>9.240180049882245</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.21142952640847</v>
+        <v>11.32678192656808</v>
       </c>
       <c r="E12">
-        <v>10.99552338500989</v>
+        <v>6.190688538494074</v>
       </c>
       <c r="F12">
-        <v>80.53866564896666</v>
+        <v>85.60442116203912</v>
       </c>
       <c r="G12">
-        <v>1.791424041717713</v>
+        <v>1.770035333843436</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.08314065846503</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>65.98597268786567</v>
+        <v>69.1748301082071</v>
       </c>
       <c r="L12">
-        <v>50.57429406113566</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>45.42620589143421</v>
+      </c>
+      <c r="N12">
+        <v>8.55959018715517</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.68535333879075</v>
+        <v>9.213366444537156</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.16186854619859</v>
+        <v>11.27144712860724</v>
       </c>
       <c r="E13">
-        <v>10.95406219817899</v>
+        <v>6.180364928845296</v>
       </c>
       <c r="F13">
-        <v>80.19074562731562</v>
+        <v>85.22445188824939</v>
       </c>
       <c r="G13">
-        <v>1.793709477069339</v>
+        <v>1.772584875032035</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.07356010445007</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>65.73621941636441</v>
+        <v>68.8913876268264</v>
       </c>
       <c r="L13">
-        <v>50.37685951602406</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>45.24124375320312</v>
+      </c>
+      <c r="N13">
+        <v>8.597893694188079</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.49488881017723</v>
+        <v>9.125683969468906</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.0019045009369</v>
+        <v>11.09325165389017</v>
       </c>
       <c r="E14">
-        <v>10.8207087904408</v>
+        <v>6.147839820629641</v>
       </c>
       <c r="F14">
-        <v>79.06572870837255</v>
+        <v>83.99853776326668</v>
       </c>
       <c r="G14">
-        <v>1.801069447364618</v>
+        <v>1.780770434551997</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.04662917165372</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>64.92628258992518</v>
+        <v>67.97509650287719</v>
       </c>
       <c r="L14">
-        <v>49.73685446305144</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>44.64316245414263</v>
+      </c>
+      <c r="N14">
+        <v>8.721291865513811</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.37821728812537</v>
+        <v>9.071785091636084</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.905116479729257</v>
+        <v>10.98571224825662</v>
       </c>
       <c r="E15">
-        <v>10.74035835566672</v>
+        <v>6.128732451514071</v>
       </c>
       <c r="F15">
-        <v>78.3835060506841</v>
+        <v>83.25703813494869</v>
       </c>
       <c r="G15">
-        <v>1.805510305639314</v>
+        <v>1.785691895717447</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.0333057480902</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>64.43336687843879</v>
+        <v>67.41951967124933</v>
       </c>
       <c r="L15">
-        <v>49.34755818034957</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>44.28042104735605</v>
+      </c>
+      <c r="N15">
+        <v>8.795783613458148</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.7082515873521</v>
+        <v>8.759691829138459</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.365751513953834</v>
+        <v>10.38966627383257</v>
       </c>
       <c r="E16">
-        <v>10.29689449753596</v>
+        <v>6.029592585172789</v>
       </c>
       <c r="F16">
-        <v>74.56115197579626</v>
+        <v>79.12519245269678</v>
       </c>
       <c r="G16">
-        <v>1.830083122697159</v>
+        <v>1.812712010531166</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.00033396559531</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>61.6464944648304</v>
+        <v>64.30441289606864</v>
       </c>
       <c r="L16">
-        <v>47.14950655500876</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>42.24526710761622</v>
+      </c>
+      <c r="N16">
+        <v>9.208480124706741</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.29487380993331</v>
+        <v>8.565093383378798</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.045793855813589</v>
+        <v>10.03816012241039</v>
       </c>
       <c r="E17">
-        <v>10.03696258502678</v>
+        <v>5.976192640691295</v>
       </c>
       <c r="F17">
-        <v>72.27759437281898</v>
+        <v>76.67178119563832</v>
       </c>
       <c r="G17">
-        <v>1.844516773420258</v>
+        <v>1.828436911751095</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.01385069231603</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>59.96056782709426</v>
+        <v>62.43864924617416</v>
       </c>
       <c r="L17">
-        <v>45.82232551820469</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>41.02547690844363</v>
+      </c>
+      <c r="N17">
+        <v>9.451275351321039</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.055852422073</v>
+        <v>8.451924173402514</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.864885004998705</v>
+        <v>9.83993936880645</v>
       </c>
       <c r="E18">
-        <v>9.890924180636592</v>
+        <v>5.947636688939189</v>
       </c>
       <c r="F18">
-        <v>70.98127982787047</v>
+        <v>75.28305421210213</v>
       </c>
       <c r="G18">
-        <v>1.852629391108727</v>
+        <v>1.8372341122077</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.03230803078132</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>58.99628462961323</v>
+        <v>61.3770094395791</v>
       </c>
       <c r="L18">
-        <v>45.06411504515404</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>40.33117582942839</v>
+      </c>
+      <c r="N18">
+        <v>9.587849350009483</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.97467695036555</v>
+        <v>8.413386798652098</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.804097714960612</v>
+        <v>9.773408438172316</v>
       </c>
       <c r="E19">
-        <v>9.841996442121678</v>
+        <v>5.938295884031746</v>
       </c>
       <c r="F19">
-        <v>70.54488173990775</v>
+        <v>74.81612429880963</v>
       </c>
       <c r="G19">
-        <v>1.855347371846144</v>
+        <v>1.840175289165695</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.04024874506545</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>58.67046205596985</v>
+        <v>61.01913270089914</v>
       </c>
       <c r="L19">
-        <v>44.80806976875898</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>40.09709578814189</v>
+      </c>
+      <c r="N19">
+        <v>9.633620968925648</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.33900105768112</v>
+        <v>8.585935454520865</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.079513141550184</v>
+        <v>10.07514505826038</v>
       </c>
       <c r="E20">
-        <v>10.06425467147221</v>
+        <v>5.981643001905392</v>
       </c>
       <c r="F20">
-        <v>72.51880363929322</v>
+        <v>76.93048691949625</v>
       </c>
       <c r="G20">
-        <v>1.843000787030325</v>
+        <v>1.826789835391208</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.01127098984302</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>60.13941164589981</v>
+        <v>62.63597355179623</v>
       </c>
       <c r="L20">
-        <v>45.96302061717591</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>41.15450792103268</v>
+      </c>
+      <c r="N20">
+        <v>9.425762150747396</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.55083081557998</v>
+        <v>9.151477406838033</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.04863272219805</v>
+        <v>11.1452440795034</v>
       </c>
       <c r="E21">
-        <v>10.85959093328157</v>
+        <v>6.157217386016436</v>
       </c>
       <c r="F21">
-        <v>79.39468976585385</v>
+        <v>84.35658410137059</v>
       </c>
       <c r="G21">
-        <v>1.798922099018594</v>
+        <v>1.778386042493672</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.05386456183419</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>65.16348507623947</v>
+        <v>68.24299972030573</v>
       </c>
       <c r="L21">
-        <v>49.92424751079672</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>44.81805116261653</v>
+      </c>
+      <c r="N21">
+        <v>8.685281654272398</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.34149468291945</v>
+        <v>9.512317450680175</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.7330507793348</v>
+        <v>11.91342543519352</v>
       </c>
       <c r="E22">
-        <v>11.43635706733201</v>
+        <v>6.30698303711562</v>
       </c>
       <c r="F22">
-        <v>84.1818146601738</v>
+        <v>89.61133036045828</v>
       </c>
       <c r="G22">
-        <v>1.767226140288886</v>
+        <v>1.742786712715651</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12.21897552975798</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>68.58099479054086</v>
+        <v>72.14813295195313</v>
       </c>
       <c r="L22">
-        <v>52.62788369152713</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>47.36494790214989</v>
+      </c>
+      <c r="N22">
+        <v>8.154374584757932</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.91898050564765</v>
+        <v>9.320380484244225</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.36154557111605</v>
+        <v>11.49477846621644</v>
       </c>
       <c r="E23">
-        <v>11.12153877668909</v>
+        <v>6.222695951958544</v>
       </c>
       <c r="F23">
-        <v>81.59062562255957</v>
+        <v>86.75590875299682</v>
       </c>
       <c r="G23">
-        <v>1.784486999507776</v>
+        <v>1.762272834798381</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.11570823752868</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>66.73905310676062</v>
+        <v>70.03219920603641</v>
       </c>
       <c r="L23">
-        <v>51.16984619894633</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>45.98554516311349</v>
+      </c>
+      <c r="N23">
+        <v>8.443365150663679</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.31905546984119</v>
+        <v>8.576516798644898</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.064259393254169</v>
+        <v>10.05841241724444</v>
       </c>
       <c r="E24">
-        <v>10.05190555720463</v>
+        <v>5.979172344718306</v>
       </c>
       <c r="F24">
-        <v>72.40970268698756</v>
+        <v>76.81345997221698</v>
       </c>
       <c r="G24">
-        <v>1.843686731473452</v>
+        <v>1.827535221218128</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.01240438860681</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>60.05854161399157</v>
+        <v>62.54673011462628</v>
       </c>
       <c r="L24">
-        <v>45.89939801773341</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>41.09615203425626</v>
+      </c>
+      <c r="N24">
+        <v>9.437305880215554</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.54390537155317</v>
+        <v>7.826751200299474</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.781919976329623</v>
+        <v>8.658470576757804</v>
       </c>
       <c r="E25">
-        <v>9.028784784100472</v>
+        <v>5.798805593452835</v>
       </c>
       <c r="F25">
-        <v>63.14712569460404</v>
+        <v>66.93448886919757</v>
       </c>
       <c r="G25">
-        <v>1.900437714376324</v>
+        <v>1.888579410464513</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.30067903841876</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>53.05028869523609</v>
+        <v>54.90371496575286</v>
       </c>
       <c r="L25">
-        <v>40.40339844129665</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>36.09530515885055</v>
+      </c>
+      <c r="N25">
+        <v>10.39352242204614</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.298095387031174</v>
+        <v>12.09894040117175</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.670104126635493</v>
+        <v>4.066115205848083</v>
       </c>
       <c r="E2">
-        <v>5.699595483744977</v>
+        <v>8.89865910760814</v>
       </c>
       <c r="F2">
-        <v>59.87035098060714</v>
+        <v>22.7297310080254</v>
       </c>
       <c r="G2">
-        <v>1.930041267037027</v>
+        <v>31.18176477992782</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.25903903950153</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.76034306791393</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>49.28857487201006</v>
+        <v>15.19961453229206</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.476535576803689</v>
       </c>
       <c r="M2">
-        <v>32.41940143405611</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.05105350611528</v>
+        <v>12.7396504588262</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.927707631294655</v>
+        <v>11.44979493614917</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.121216237934661</v>
+        <v>4.02255550451939</v>
       </c>
       <c r="E3">
-        <v>5.644384098089072</v>
+        <v>8.934162004394551</v>
       </c>
       <c r="F3">
-        <v>55.07882918873563</v>
+        <v>21.96369269376005</v>
       </c>
       <c r="G3">
-        <v>1.957189354149306</v>
+        <v>29.98298156461587</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.16643396212546</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.89968526028141</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>45.39413213323672</v>
+        <v>14.27096809174596</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.155899149508029</v>
       </c>
       <c r="M3">
-        <v>29.86996647869346</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11.48259984228416</v>
+        <v>12.96005239159377</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.694727828353292</v>
+        <v>11.0368193462021</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.818193734874765</v>
+        <v>3.995350044659735</v>
       </c>
       <c r="E4">
-        <v>5.614647362940814</v>
+        <v>8.958053230401918</v>
       </c>
       <c r="F4">
-        <v>52.10722944235285</v>
+        <v>21.50157040974146</v>
       </c>
       <c r="G4">
-        <v>1.973654265274191</v>
+        <v>29.25675396998444</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.11717425492737</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.99641558942591</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>42.9378899397243</v>
+        <v>13.67075041536631</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.955827403680955</v>
       </c>
       <c r="M4">
-        <v>28.26224329799051</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>11.7439784107111</v>
+        <v>13.09821743763911</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.598482346319015</v>
+        <v>10.86509578096786</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.696912000860457</v>
+        <v>3.984153704984675</v>
       </c>
       <c r="E5">
-        <v>5.603383724357648</v>
+        <v>8.968304121355299</v>
       </c>
       <c r="F5">
-        <v>50.88589704884481</v>
+        <v>21.3155493752004</v>
       </c>
       <c r="G5">
-        <v>1.980343117488945</v>
+        <v>28.96366971248943</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.09896264030461</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>17.03853446108419</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>41.91813889561337</v>
+        <v>13.41862191376382</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.873608706466207</v>
       </c>
       <c r="M5">
-        <v>27.59484157896918</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>11.849982208758</v>
+        <v>13.15526101405987</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.58242535538921</v>
+        <v>10.83638009695932</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.676897416342904</v>
+        <v>3.982288093034068</v>
       </c>
       <c r="E6">
-        <v>5.601560266719114</v>
+        <v>8.970037073264558</v>
       </c>
       <c r="F6">
-        <v>50.68239898385261</v>
+        <v>21.28480630745648</v>
       </c>
       <c r="G6">
-        <v>1.981453323169023</v>
+        <v>28.91518775384395</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.0960495860433</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>17.0456882876295</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>41.74761086536506</v>
+        <v>13.37630186429084</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.859918507716999</v>
       </c>
       <c r="M6">
-        <v>27.48323991894699</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>11.86756336374874</v>
+        <v>13.1647785205431</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.693434965142055</v>
+        <v>11.03451704596609</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.81654958555037</v>
+        <v>3.995199484248282</v>
       </c>
       <c r="E7">
-        <v>5.6144922181473</v>
+        <v>8.958189406171439</v>
       </c>
       <c r="F7">
-        <v>52.09080342154267</v>
+        <v>21.49905205478775</v>
       </c>
       <c r="G7">
-        <v>1.973744521472165</v>
+        <v>29.25278922664481</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.11692117422801</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.9969728251676</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>42.9242162928734</v>
+        <v>13.66738059829814</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.954721193604223</v>
       </c>
       <c r="M7">
-        <v>28.25329392938463</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>11.74540961433851</v>
+        <v>13.09898371576274</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.171587303372876</v>
+        <v>11.87820494552843</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.453137907486701</v>
+        <v>4.05119457288704</v>
       </c>
       <c r="E8">
-        <v>5.67956159997153</v>
+        <v>8.910459265940364</v>
       </c>
       <c r="F8">
-        <v>58.22231008040776</v>
+        <v>22.46402727778265</v>
       </c>
       <c r="G8">
-        <v>1.939464874751741</v>
+        <v>30.76660844142641</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.22550290050134</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.80600162699305</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>47.95762242978664</v>
+        <v>14.88565268031737</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.366709727558252</v>
       </c>
       <c r="M8">
-        <v>31.54808379744992</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.20085888433012</v>
+        <v>12.81507265591849</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.062555271294764</v>
+        <v>13.41191910676226</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.119453591157352</v>
+        <v>4.157114444910907</v>
       </c>
       <c r="E9">
-        <v>5.852710496553119</v>
+        <v>8.834015077049244</v>
       </c>
       <c r="F9">
-        <v>70.20567901962382</v>
+        <v>24.4122612030879</v>
       </c>
       <c r="G9">
-        <v>1.868771328644309</v>
+        <v>33.79779233096021</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.5007702522474</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>16.52537065532539</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>57.45952568114663</v>
+        <v>17.03664344293936</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.166632930393483</v>
       </c>
       <c r="M9">
-        <v>37.76810905611829</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>10.08120875118258</v>
+        <v>12.27955458001551</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.781734526414766</v>
+        <v>14.45849429459945</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.43039355384339</v>
+        <v>4.232260063892272</v>
       </c>
       <c r="E10">
-        <v>6.036015338162253</v>
+        <v>8.789166835158005</v>
       </c>
       <c r="F10">
-        <v>79.40867345131653</v>
+        <v>25.86660034146767</v>
       </c>
       <c r="G10">
-        <v>1.810879860152516</v>
+        <v>36.04530771803982</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.74360010584497</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>16.38404457208184</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>64.51920600530204</v>
+        <v>18.47318123337824</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.896060884102711</v>
       </c>
       <c r="M10">
-        <v>42.38565671593702</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>9.180309685453699</v>
+        <v>11.89714984502216</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.115388447005317</v>
+        <v>14.91628949799211</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.0725955047899</v>
+        <v>4.265805112803662</v>
       </c>
       <c r="E11">
-        <v>6.144139589360279</v>
+        <v>8.771440009065726</v>
       </c>
       <c r="F11">
-        <v>83.85620750323916</v>
+        <v>26.53134722142183</v>
       </c>
       <c r="G11">
-        <v>1.781716831185834</v>
+        <v>37.06944143120505</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.86338770147195</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.33562818422028</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>67.86853366624206</v>
+        <v>19.09600128907442</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.212232043645997</v>
       </c>
       <c r="M11">
-        <v>44.57359253119164</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>8.735599413166446</v>
+        <v>11.72513125031894</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.240180049882245</v>
+        <v>15.08696544152243</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.32678192656808</v>
+        <v>4.278411087508979</v>
       </c>
       <c r="E12">
-        <v>6.190688538494074</v>
+        <v>8.765132865606631</v>
       </c>
       <c r="F12">
-        <v>85.60442116203912</v>
+        <v>26.78340648045385</v>
       </c>
       <c r="G12">
-        <v>1.770035333843436</v>
+        <v>37.45733971623087</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.91012729010235</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.31973563484812</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>69.1748301082071</v>
+        <v>19.32749197922919</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.329745508075165</v>
       </c>
       <c r="M12">
-        <v>45.42620589143421</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>8.55959018715517</v>
+        <v>11.66023158177225</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.213366444537156</v>
+        <v>15.05032718210332</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.27144712860724</v>
+        <v>4.275700546086755</v>
       </c>
       <c r="E13">
-        <v>6.180364928845296</v>
+        <v>8.766472821503255</v>
       </c>
       <c r="F13">
-        <v>85.22445188824939</v>
+        <v>26.72910773481843</v>
       </c>
       <c r="G13">
-        <v>1.772584875032035</v>
+        <v>37.37379735466725</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.89999917121016</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.32304716319762</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>68.8913876268264</v>
+        <v>19.2778291970276</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.304534718636011</v>
       </c>
       <c r="M13">
-        <v>45.24124375320312</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>8.597893694188079</v>
+        <v>11.67419885713142</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.125683969468906</v>
+        <v>14.93038507017795</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.09325165389017</v>
+        <v>4.266844181239289</v>
       </c>
       <c r="E14">
-        <v>6.147839820629641</v>
+        <v>8.770912858486398</v>
       </c>
       <c r="F14">
-        <v>83.99853776326668</v>
+        <v>26.55207817175603</v>
       </c>
       <c r="G14">
-        <v>1.780770434551997</v>
+        <v>37.10135319531643</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.86720515086823</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.33427081874254</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>67.97509650287719</v>
+        <v>19.11513317047688</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.221944091782305</v>
       </c>
       <c r="M14">
-        <v>44.64316245414263</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>8.721291865513811</v>
+        <v>11.71978733650549</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.071785091636084</v>
+        <v>14.85656670844498</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.98571224825662</v>
+        <v>4.26140665385793</v>
       </c>
       <c r="E15">
-        <v>6.128732451514071</v>
+        <v>8.773685997085746</v>
       </c>
       <c r="F15">
-        <v>83.25703813494869</v>
+        <v>26.44368291556094</v>
       </c>
       <c r="G15">
-        <v>1.785691895717447</v>
+        <v>36.93447980719988</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.8472985185448</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.34146847508812</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>67.41951967124933</v>
+        <v>19.0149113606182</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.171067800736346</v>
       </c>
       <c r="M15">
-        <v>44.28042104735605</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>8.795783613458148</v>
+        <v>11.74774165993469</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.759691829138459</v>
+        <v>14.42820343291774</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.38966627383257</v>
+        <v>4.230054530445725</v>
       </c>
       <c r="E16">
-        <v>6.029592585172789</v>
+        <v>8.790380889108141</v>
       </c>
       <c r="F16">
-        <v>79.12519245269678</v>
+        <v>25.82321016323665</v>
       </c>
       <c r="G16">
-        <v>1.812712010531166</v>
+        <v>35.97839738550117</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10.73596257548415</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>16.38754152340438</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>64.30441289606864</v>
+        <v>18.43186561212321</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.875086514729505</v>
       </c>
       <c r="M16">
-        <v>42.24526710761622</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>9.208480124706741</v>
+        <v>11.90842742773878</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.565093383378798</v>
+        <v>14.16068879186618</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.03816012241039</v>
+        <v>4.210653758521066</v>
       </c>
       <c r="E17">
-        <v>5.976192640691295</v>
+        <v>8.801321946958947</v>
       </c>
       <c r="F17">
-        <v>76.67178119563832</v>
+        <v>25.44328425466538</v>
       </c>
       <c r="G17">
-        <v>1.828436911751095</v>
+        <v>35.392177985411</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.67007677609327</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>16.41998201390474</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>62.43864924617416</v>
+        <v>18.06636529382503</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.689528532380871</v>
       </c>
       <c r="M17">
-        <v>41.02547690844363</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>9.451275351321039</v>
+        <v>12.00747281590649</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.451924173402514</v>
+        <v>14.00510101775101</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.83993936880645</v>
+        <v>4.199435072495541</v>
       </c>
       <c r="E18">
-        <v>5.947636688939189</v>
+        <v>8.807865333656908</v>
       </c>
       <c r="F18">
-        <v>75.28305421210213</v>
+        <v>25.22506373537313</v>
       </c>
       <c r="G18">
-        <v>1.8372341122077</v>
+        <v>35.05516933981393</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.63305635718675</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>16.44012499079173</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>61.3770094395791</v>
+        <v>17.85324880445023</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.581325120166438</v>
       </c>
       <c r="M18">
-        <v>40.33117582942839</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>9.587849350009483</v>
+        <v>12.0646261076258</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.413386798652098</v>
+        <v>13.95212800304162</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.773408438172316</v>
+        <v>4.195626488580095</v>
       </c>
       <c r="E19">
-        <v>5.938295884031746</v>
+        <v>8.81012321412649</v>
       </c>
       <c r="F19">
-        <v>74.81612429880963</v>
+        <v>25.1512342037783</v>
       </c>
       <c r="G19">
-        <v>1.840175289165695</v>
+        <v>34.94109906194812</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.62067104908428</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>16.44719523435438</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>61.01913270089914</v>
+        <v>17.78059335884829</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.544434841561976</v>
       </c>
       <c r="M19">
-        <v>40.09709578814189</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>9.633620968925648</v>
+        <v>12.08401014565532</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.585935454520865</v>
+        <v>14.1893446583345</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.07514505826038</v>
+        <v>4.212725237088141</v>
       </c>
       <c r="E20">
-        <v>5.981643001905392</v>
+        <v>8.800131194964269</v>
       </c>
       <c r="F20">
-        <v>76.93048691949625</v>
+        <v>25.48369764786979</v>
       </c>
       <c r="G20">
-        <v>1.826789835391208</v>
+        <v>35.45456591064035</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.6769995586964</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>16.4163739472791</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>62.63597355179623</v>
+        <v>18.1055722201034</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.709433935659408</v>
       </c>
       <c r="M20">
-        <v>41.15450792103268</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>9.425762150747396</v>
+        <v>11.99691039098962</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.151477406838033</v>
+        <v>14.96568805484141</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.1452440795034</v>
+        <v>4.26944817536595</v>
       </c>
       <c r="E21">
-        <v>6.157217386016436</v>
+        <v>8.769597524270017</v>
       </c>
       <c r="F21">
-        <v>84.35658410137059</v>
+        <v>26.60406778385038</v>
       </c>
       <c r="G21">
-        <v>1.778386042493672</v>
+        <v>37.18137551052514</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.87679983498234</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>16.33090658324518</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>68.24299972030573</v>
+        <v>19.16303874218312</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.246262732347255</v>
       </c>
       <c r="M21">
-        <v>44.81805116261653</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>8.685281654272398</v>
+        <v>11.70639070287593</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.512317450680175</v>
+        <v>15.45743407210491</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.91342543519352</v>
+        <v>4.305953547834701</v>
       </c>
       <c r="E22">
-        <v>6.30698303711562</v>
+        <v>8.752017817242143</v>
       </c>
       <c r="F22">
-        <v>89.61133036045828</v>
+        <v>27.33820826976572</v>
       </c>
       <c r="G22">
-        <v>1.742786712715651</v>
+        <v>38.31037949547687</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.01543386366957</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>16.28936047698252</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>72.14813295195313</v>
+        <v>19.82878477621742</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.584227524456274</v>
       </c>
       <c r="M22">
-        <v>47.36494790214989</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>8.154374584757932</v>
+        <v>11.51789848531929</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.320380484244225</v>
+        <v>15.1964231060323</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.49477846621644</v>
+        <v>4.286523314494572</v>
       </c>
       <c r="E23">
-        <v>6.222695951958544</v>
+        <v>8.761175469337465</v>
       </c>
       <c r="F23">
-        <v>86.75590875299682</v>
+        <v>26.94624012732744</v>
       </c>
       <c r="G23">
-        <v>1.762272834798381</v>
+        <v>37.70781012199601</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.94069301749603</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.31017016519659</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>70.03219920603641</v>
+        <v>19.47576521003182</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.405015308128185</v>
       </c>
       <c r="M23">
-        <v>45.98554516311349</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>8.443365150663679</v>
+        <v>11.61838765602712</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.576516798644898</v>
+        <v>14.17639491270347</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.05841241724444</v>
+        <v>4.211788923475866</v>
       </c>
       <c r="E24">
-        <v>5.979172344718306</v>
+        <v>8.800668746750942</v>
       </c>
       <c r="F24">
-        <v>76.81345997221698</v>
+        <v>25.46542610801855</v>
       </c>
       <c r="G24">
-        <v>1.827535221218128</v>
+        <v>35.42636026426056</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.67386709844221</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16.41800051731966</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>62.54673011462628</v>
+        <v>18.08785607170848</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.700439451423225</v>
       </c>
       <c r="M24">
-        <v>41.09615203425626</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>9.437305880215554</v>
+        <v>12.00168500386216</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.826751200299474</v>
+        <v>13.01072303461909</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.658470576757804</v>
+        <v>4.12890860818428</v>
       </c>
       <c r="E25">
-        <v>5.798805593452835</v>
+        <v>8.852775916472183</v>
       </c>
       <c r="F25">
-        <v>66.93448886919757</v>
+        <v>23.88045649420477</v>
       </c>
       <c r="G25">
-        <v>1.888579410464513</v>
+        <v>32.97306569206464</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.41935142789074</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.59047996520357</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>54.90371496575286</v>
+        <v>16.48013730064912</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.938085532682093</v>
       </c>
       <c r="M25">
-        <v>36.09530515885055</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>10.39352242204614</v>
+        <v>12.42234309200276</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.09894040117175</v>
+        <v>13.48457052857455</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.066115205848083</v>
+        <v>5.176668469940501</v>
       </c>
       <c r="E2">
-        <v>8.89865910760814</v>
+        <v>14.10757829808751</v>
       </c>
       <c r="F2">
-        <v>22.7297310080254</v>
+        <v>27.15801106511764</v>
       </c>
       <c r="G2">
-        <v>31.18176477992782</v>
+        <v>33.98184631538024</v>
       </c>
       <c r="H2">
-        <v>10.25903903950153</v>
+        <v>15.3679665752588</v>
       </c>
       <c r="I2">
-        <v>16.76034306791393</v>
+        <v>26.06348915289791</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.19961453229206</v>
+        <v>9.899114111532027</v>
       </c>
       <c r="L2">
-        <v>7.476535576803689</v>
+        <v>9.374449907358573</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.7396504588262</v>
+        <v>19.62611424727102</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.44979493614917</v>
+        <v>13.3598171183138</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.02255550451939</v>
+        <v>5.160803378983115</v>
       </c>
       <c r="E3">
-        <v>8.934162004394551</v>
+        <v>14.13050070204311</v>
       </c>
       <c r="F3">
-        <v>21.96369269376005</v>
+        <v>27.08962549683395</v>
       </c>
       <c r="G3">
-        <v>29.98298156461587</v>
+        <v>33.8286027481911</v>
       </c>
       <c r="H3">
-        <v>10.16643396212546</v>
+        <v>15.39610713573379</v>
       </c>
       <c r="I3">
-        <v>16.89968526028141</v>
+        <v>26.15367265503337</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.27096809174596</v>
+        <v>9.573744014197953</v>
       </c>
       <c r="L3">
-        <v>7.155899149508029</v>
+        <v>9.33288049383826</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.96005239159377</v>
+        <v>19.6900717145537</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.0368193462021</v>
+        <v>13.28533463329183</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.995350044659735</v>
+        <v>5.150876610175571</v>
       </c>
       <c r="E4">
-        <v>8.958053230401918</v>
+        <v>14.14552958154498</v>
       </c>
       <c r="F4">
-        <v>21.50157040974146</v>
+        <v>27.05539240173879</v>
       </c>
       <c r="G4">
-        <v>29.25675396998444</v>
+        <v>33.74571990956162</v>
       </c>
       <c r="H4">
-        <v>10.11717425492737</v>
+        <v>15.41638499060262</v>
       </c>
       <c r="I4">
-        <v>16.99641558942591</v>
+        <v>26.21341704443844</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.67075041536631</v>
+        <v>9.37031886247274</v>
       </c>
       <c r="L4">
-        <v>6.955827403680955</v>
+        <v>9.309188732026564</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.09821743763911</v>
+        <v>19.73114908080441</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.86509578096786</v>
+        <v>13.25554569527032</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.984153704984675</v>
+        <v>5.146785479991697</v>
       </c>
       <c r="E5">
-        <v>8.968304121355299</v>
+        <v>14.151894477968</v>
       </c>
       <c r="F5">
-        <v>21.3155493752004</v>
+        <v>27.04340156231003</v>
       </c>
       <c r="G5">
-        <v>28.96366971248943</v>
+        <v>33.71478929362857</v>
       </c>
       <c r="H5">
-        <v>10.09896264030461</v>
+        <v>15.42540142583807</v>
       </c>
       <c r="I5">
-        <v>17.03853446108419</v>
+        <v>26.2388619031735</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.41862191376382</v>
+        <v>9.286642077663819</v>
       </c>
       <c r="L5">
-        <v>6.873608706466207</v>
+        <v>9.300002362031014</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.15526101405987</v>
+        <v>19.7483442362025</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.83638009695932</v>
+        <v>13.25063417224965</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.982288093034068</v>
+        <v>5.146103401532206</v>
       </c>
       <c r="E6">
-        <v>8.970037073264558</v>
+        <v>14.15296590511346</v>
       </c>
       <c r="F6">
-        <v>21.28480630745648</v>
+        <v>27.04152905889603</v>
       </c>
       <c r="G6">
-        <v>28.91518775384395</v>
+        <v>33.70982577916244</v>
       </c>
       <c r="H6">
-        <v>10.0960495860433</v>
+        <v>15.42694404252248</v>
       </c>
       <c r="I6">
-        <v>17.0456882876295</v>
+        <v>26.24315333179207</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.37630186429084</v>
+        <v>9.272704768735288</v>
       </c>
       <c r="L6">
-        <v>6.859918507716999</v>
+        <v>9.298505459783838</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.1647785205431</v>
+        <v>19.75122704739082</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.03451704596609</v>
+        <v>13.28493056831951</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.995199484248282</v>
+        <v>5.150821620576981</v>
       </c>
       <c r="E7">
-        <v>8.958189406171439</v>
+        <v>14.14561444626517</v>
       </c>
       <c r="F7">
-        <v>21.49905205478775</v>
+        <v>27.05522274513116</v>
       </c>
       <c r="G7">
-        <v>29.25278922664481</v>
+        <v>33.74529121895809</v>
       </c>
       <c r="H7">
-        <v>10.11692117422801</v>
+        <v>15.41650354205458</v>
       </c>
       <c r="I7">
-        <v>16.9969728251676</v>
+        <v>26.2137557556828</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.66738059829814</v>
+        <v>9.369193334119561</v>
       </c>
       <c r="L7">
-        <v>6.954721193604223</v>
+        <v>9.309062936134064</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.09898371576274</v>
+        <v>19.73137913340283</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.87820494552843</v>
+        <v>13.44113517387515</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.05119457288704</v>
+        <v>5.171237151039152</v>
       </c>
       <c r="E8">
-        <v>8.910459265940364</v>
+        <v>14.11528415502179</v>
       </c>
       <c r="F8">
-        <v>22.46402727778265</v>
+        <v>27.13282814822223</v>
       </c>
       <c r="G8">
-        <v>30.76660844142641</v>
+        <v>33.92669854735763</v>
       </c>
       <c r="H8">
-        <v>10.22550290050134</v>
+        <v>15.37704623370201</v>
       </c>
       <c r="I8">
-        <v>16.80600162699305</v>
+        <v>26.09367674364303</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.88565268031737</v>
+        <v>9.787762553624505</v>
       </c>
       <c r="L8">
-        <v>7.366709727558252</v>
+        <v>9.35974123732878</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.81507265591849</v>
+        <v>19.64779251232003</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.41191910676226</v>
+        <v>13.7628381313277</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.157114444910907</v>
+        <v>5.209767252606843</v>
       </c>
       <c r="E9">
-        <v>8.834015077049244</v>
+        <v>14.06335687994873</v>
       </c>
       <c r="F9">
-        <v>24.4122612030879</v>
+        <v>27.34604631086015</v>
       </c>
       <c r="G9">
-        <v>33.79779233096021</v>
+        <v>34.37000779596629</v>
       </c>
       <c r="H9">
-        <v>10.5007702522474</v>
+        <v>15.32351808537059</v>
       </c>
       <c r="I9">
-        <v>16.52537065532539</v>
+        <v>25.89291713265176</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.03664344293936</v>
+        <v>10.57415045483488</v>
       </c>
       <c r="L9">
-        <v>8.166632930393483</v>
+        <v>9.47329971008355</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.27955458001551</v>
+        <v>19.49815589828879</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.45849429459945</v>
+        <v>14.0066379640546</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.232260063892272</v>
+        <v>5.237115919149676</v>
       </c>
       <c r="E10">
-        <v>8.789166835158005</v>
+        <v>14.02977777689156</v>
       </c>
       <c r="F10">
-        <v>25.86660034146767</v>
+        <v>27.53907979483082</v>
       </c>
       <c r="G10">
-        <v>36.04530771803982</v>
+        <v>34.74694818461435</v>
       </c>
       <c r="H10">
-        <v>10.74360010584497</v>
+        <v>15.29878788078443</v>
       </c>
       <c r="I10">
-        <v>16.38404457208184</v>
+        <v>25.76662349422828</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.47318123337824</v>
+        <v>11.12434979947011</v>
       </c>
       <c r="L10">
-        <v>8.896060884102711</v>
+        <v>9.564858958218032</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.89714984502216</v>
+        <v>19.39683130058738</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.91628949799211</v>
+        <v>14.118744992267</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.265805112803662</v>
+        <v>5.249340327018202</v>
       </c>
       <c r="E11">
-        <v>8.771440009065726</v>
+        <v>14.01548800906574</v>
       </c>
       <c r="F11">
-        <v>26.53134722142183</v>
+        <v>27.63457349322811</v>
       </c>
       <c r="G11">
-        <v>37.06944143120505</v>
+        <v>34.92901043061406</v>
       </c>
       <c r="H11">
-        <v>10.86338770147195</v>
+        <v>15.29071639967584</v>
       </c>
       <c r="I11">
-        <v>16.33562818422028</v>
+        <v>25.71378274038551</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.09600128907442</v>
+        <v>11.36749340855789</v>
       </c>
       <c r="L11">
-        <v>9.212232043645997</v>
+        <v>9.6081561525046</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.72513125031894</v>
+        <v>19.35258722491817</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.08696544152243</v>
+        <v>14.16133430288896</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.278411087508979</v>
+        <v>5.253937452745299</v>
       </c>
       <c r="E12">
-        <v>8.765132865606631</v>
+        <v>14.01021807124887</v>
       </c>
       <c r="F12">
-        <v>26.78340648045385</v>
+        <v>27.6718170371582</v>
       </c>
       <c r="G12">
-        <v>37.45733971623087</v>
+        <v>34.99942408599708</v>
       </c>
       <c r="H12">
-        <v>10.91012729010235</v>
+        <v>15.28811743248314</v>
       </c>
       <c r="I12">
-        <v>16.31973563484812</v>
+        <v>25.69443721527226</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.32749197922919</v>
+        <v>11.45845437772809</v>
       </c>
       <c r="L12">
-        <v>9.329745508075165</v>
+        <v>9.624777593416889</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.66023158177225</v>
+        <v>19.33609761125181</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.05032718210332</v>
+        <v>14.15215641830142</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.275700546086755</v>
+        <v>5.252948815682275</v>
       </c>
       <c r="E13">
-        <v>8.766472821503255</v>
+        <v>14.01134676967759</v>
       </c>
       <c r="F13">
-        <v>26.72910773481843</v>
+        <v>27.66374822366416</v>
       </c>
       <c r="G13">
-        <v>37.37379735466725</v>
+        <v>34.9841947051913</v>
       </c>
       <c r="H13">
-        <v>10.89999917121016</v>
+        <v>15.28865681232303</v>
       </c>
       <c r="I13">
-        <v>16.32304716319762</v>
+        <v>25.69857406590138</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.2778291970276</v>
+        <v>11.438915021339</v>
       </c>
       <c r="L13">
-        <v>9.304534718636011</v>
+        <v>9.621188008707204</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.67419885713142</v>
+        <v>19.33963719326711</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.93038507017795</v>
+        <v>14.12224630376686</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.266844181239289</v>
+        <v>5.249719181296165</v>
       </c>
       <c r="E14">
-        <v>8.770912858486398</v>
+        <v>14.0150516189537</v>
       </c>
       <c r="F14">
-        <v>26.55207817175603</v>
+        <v>27.63761598990024</v>
       </c>
       <c r="G14">
-        <v>37.10135319531643</v>
+        <v>34.93477424161817</v>
       </c>
       <c r="H14">
-        <v>10.86720515086823</v>
+        <v>15.2904934094894</v>
       </c>
       <c r="I14">
-        <v>16.33427081874254</v>
+        <v>25.71217785616686</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.11513317047688</v>
+        <v>11.37499956487044</v>
       </c>
       <c r="L14">
-        <v>9.221944091782305</v>
+        <v>9.609519148908936</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.71978733650549</v>
+        <v>19.35122531732643</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.85656670844498</v>
+        <v>14.10394224835063</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.26140665385793</v>
+        <v>5.247736745747849</v>
       </c>
       <c r="E15">
-        <v>8.773685997085746</v>
+        <v>14.01733933316755</v>
       </c>
       <c r="F15">
-        <v>26.44368291556094</v>
+        <v>27.62174946909888</v>
       </c>
       <c r="G15">
-        <v>36.93447980719988</v>
+        <v>34.90469269397575</v>
       </c>
       <c r="H15">
-        <v>10.8472985185448</v>
+        <v>15.29167797279719</v>
       </c>
       <c r="I15">
-        <v>16.34146847508812</v>
+        <v>25.72059709106301</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.0149113606182</v>
+        <v>11.33570230291248</v>
       </c>
       <c r="L15">
-        <v>9.171067800736346</v>
+        <v>9.602400698815437</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.74774165993469</v>
+        <v>19.35835780795937</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.42820343291774</v>
+        <v>13.99933260436552</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.230054530445725</v>
+        <v>5.236312594197905</v>
       </c>
       <c r="E16">
-        <v>8.790380889108141</v>
+        <v>14.03073144126993</v>
       </c>
       <c r="F16">
-        <v>25.82321016323665</v>
+        <v>27.53299175883084</v>
       </c>
       <c r="G16">
-        <v>35.97839738550117</v>
+        <v>34.73525870340451</v>
       </c>
       <c r="H16">
-        <v>10.73596257548415</v>
+        <v>15.29937937376007</v>
       </c>
       <c r="I16">
-        <v>16.38754152340438</v>
+        <v>25.770169636683</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.43186561212321</v>
+        <v>11.10830854820466</v>
       </c>
       <c r="L16">
-        <v>8.875086514729505</v>
+        <v>9.562061581911417</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.90842742773878</v>
+        <v>19.39975985644604</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.16068879186618</v>
+        <v>13.93544005095161</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.210653758521066</v>
+        <v>5.229248162989119</v>
       </c>
       <c r="E17">
-        <v>8.801321946958947</v>
+        <v>14.03919917580617</v>
       </c>
       <c r="F17">
-        <v>25.44328425466538</v>
+        <v>27.48049392100769</v>
       </c>
       <c r="G17">
-        <v>35.392177985411</v>
+        <v>34.63399276935839</v>
       </c>
       <c r="H17">
-        <v>10.67007677609327</v>
+        <v>15.30491839901979</v>
       </c>
       <c r="I17">
-        <v>16.41998201390474</v>
+        <v>25.80176250952343</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.06636529382503</v>
+        <v>10.96691642973433</v>
       </c>
       <c r="L17">
-        <v>8.689528532380871</v>
+        <v>9.537728814966744</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.00747281590649</v>
+        <v>19.42563136820299</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.00510101775101</v>
+        <v>13.8988059605378</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.199435072495541</v>
+        <v>5.225164548160476</v>
       </c>
       <c r="E18">
-        <v>8.807865333656908</v>
+        <v>14.04416238140966</v>
       </c>
       <c r="F18">
-        <v>25.22506373537313</v>
+        <v>27.4510230776233</v>
       </c>
       <c r="G18">
-        <v>35.05516933981393</v>
+        <v>34.57674743244934</v>
       </c>
       <c r="H18">
-        <v>10.63305635718675</v>
+        <v>15.3084034502668</v>
       </c>
       <c r="I18">
-        <v>16.44012499079173</v>
+        <v>25.82036782452293</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.85324880445023</v>
+        <v>10.88492334897376</v>
       </c>
       <c r="L18">
-        <v>8.581325120166438</v>
+        <v>9.523888907099604</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.0646261076258</v>
+        <v>19.44068608587317</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.95212800304162</v>
+        <v>13.88642317217734</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.195626488580095</v>
+        <v>5.223778438416189</v>
       </c>
       <c r="E19">
-        <v>8.81012321412649</v>
+        <v>14.04585878731902</v>
       </c>
       <c r="F19">
-        <v>25.1512342037783</v>
+        <v>27.44116984606242</v>
       </c>
       <c r="G19">
-        <v>34.94109906194812</v>
+        <v>34.55753845704581</v>
       </c>
       <c r="H19">
-        <v>10.62067104908428</v>
+        <v>15.30963479060345</v>
       </c>
       <c r="I19">
-        <v>16.44719523435438</v>
+        <v>25.82674175944753</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.78059335884829</v>
+        <v>10.85704990240276</v>
       </c>
       <c r="L19">
-        <v>8.544434841561976</v>
+        <v>9.519230015575037</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.08401014565532</v>
+        <v>19.44581329541504</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.1893446583345</v>
+        <v>13.94222985855721</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.212725237088141</v>
+        <v>5.230002295034162</v>
       </c>
       <c r="E20">
-        <v>8.800131194964269</v>
+        <v>14.03828817089772</v>
       </c>
       <c r="F20">
-        <v>25.48369764786979</v>
+        <v>27.48600757632205</v>
       </c>
       <c r="G20">
-        <v>35.45456591064035</v>
+        <v>34.64466955665858</v>
       </c>
       <c r="H20">
-        <v>10.6769995586964</v>
+        <v>15.30429779531823</v>
       </c>
       <c r="I20">
-        <v>16.4163739472791</v>
+        <v>25.79835447626334</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.1055722201034</v>
+        <v>10.98203765037197</v>
       </c>
       <c r="L20">
-        <v>8.709433935659408</v>
+        <v>9.540303048331092</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.99691039098962</v>
+        <v>19.4228592909379</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.96568805484141</v>
+        <v>14.13102820190091</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.26944817536595</v>
+        <v>5.250668678146954</v>
       </c>
       <c r="E21">
-        <v>8.769597524270017</v>
+        <v>14.01395958383261</v>
       </c>
       <c r="F21">
-        <v>26.60406778385038</v>
+        <v>27.645262480133</v>
       </c>
       <c r="G21">
-        <v>37.18137551052514</v>
+        <v>34.94925074975119</v>
       </c>
       <c r="H21">
-        <v>10.87679983498234</v>
+        <v>15.28994153635179</v>
       </c>
       <c r="I21">
-        <v>16.33090658324518</v>
+        <v>25.70816406045313</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.16303874218312</v>
+        <v>11.39380389798168</v>
       </c>
       <c r="L21">
-        <v>9.246262732347255</v>
+        <v>9.612940539283102</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.70639070287593</v>
+        <v>19.34781443136961</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.45743407210491</v>
+        <v>14.25519976937179</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.305953547834701</v>
+        <v>5.2639884907681</v>
       </c>
       <c r="E22">
-        <v>8.752017817242143</v>
+        <v>13.99888277948689</v>
       </c>
       <c r="F22">
-        <v>27.33820826976572</v>
+        <v>27.75564057177641</v>
       </c>
       <c r="G22">
-        <v>38.31037949547687</v>
+        <v>35.15685766503334</v>
       </c>
       <c r="H22">
-        <v>11.01543386366957</v>
+        <v>15.28322579950185</v>
       </c>
       <c r="I22">
-        <v>16.28936047698252</v>
+        <v>25.65309092623277</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.82878477621742</v>
+        <v>11.70726560484622</v>
       </c>
       <c r="L22">
-        <v>9.584227524456274</v>
+        <v>9.661723713596023</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.51789848531929</v>
+        <v>19.30031034340416</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.1964231060323</v>
+        <v>14.18886742902889</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.286523314494572</v>
+        <v>5.256896831125035</v>
       </c>
       <c r="E23">
-        <v>8.761175469337465</v>
+        <v>14.00685435955139</v>
       </c>
       <c r="F23">
-        <v>26.94624012732744</v>
+        <v>27.69616157638657</v>
       </c>
       <c r="G23">
-        <v>37.70781012199601</v>
+        <v>35.04529012392241</v>
       </c>
       <c r="H23">
-        <v>10.94069301749603</v>
+        <v>15.2865659838007</v>
       </c>
       <c r="I23">
-        <v>16.31017016519659</v>
+        <v>25.68212989030579</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.47576521003182</v>
+        <v>11.52916510722073</v>
       </c>
       <c r="L23">
-        <v>9.405015308128185</v>
+        <v>9.635571053118108</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.61838765602712</v>
+        <v>19.32552347208282</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.17639491270347</v>
+        <v>13.9391598766998</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.211788923475866</v>
+        <v>5.229661420942979</v>
       </c>
       <c r="E24">
-        <v>8.800668746750942</v>
+        <v>14.03869974033223</v>
       </c>
       <c r="F24">
-        <v>25.46542610801855</v>
+        <v>27.4835126367328</v>
       </c>
       <c r="G24">
-        <v>35.42636026426056</v>
+        <v>34.63983954382014</v>
       </c>
       <c r="H24">
-        <v>10.67386709844221</v>
+        <v>15.30457743392784</v>
       </c>
       <c r="I24">
-        <v>16.41800051731966</v>
+        <v>25.79989387087682</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.08785607170848</v>
+        <v>10.97520353547583</v>
       </c>
       <c r="L24">
-        <v>8.700439451423225</v>
+        <v>9.539138771463998</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.00168500386216</v>
+        <v>19.42411198363831</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.01072303461909</v>
+        <v>13.67435950841486</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.12890860818428</v>
+        <v>5.199509270393776</v>
       </c>
       <c r="E25">
-        <v>8.852775916472183</v>
+        <v>14.07659949799086</v>
       </c>
       <c r="F25">
-        <v>23.88045649420477</v>
+        <v>27.28190737053887</v>
       </c>
       <c r="G25">
-        <v>32.97306569206464</v>
+        <v>34.24091023911562</v>
       </c>
       <c r="H25">
-        <v>10.41935142789074</v>
+        <v>15.33543909731818</v>
       </c>
       <c r="I25">
-        <v>16.59047996520357</v>
+        <v>25.94350722724192</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.48013730064912</v>
+        <v>10.3658185611294</v>
       </c>
       <c r="L25">
-        <v>7.938085532682093</v>
+        <v>9.44111238363897</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.42234309200276</v>
+        <v>19.53711750372055</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.48457052857455</v>
+        <v>12.0989404011718</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.176668469940501</v>
+        <v>4.066115205848201</v>
       </c>
       <c r="E2">
-        <v>14.10757829808751</v>
+        <v>8.898659107608141</v>
       </c>
       <c r="F2">
-        <v>27.15801106511764</v>
+        <v>22.7297310080254</v>
       </c>
       <c r="G2">
-        <v>33.98184631538024</v>
+        <v>31.18176477992789</v>
       </c>
       <c r="H2">
-        <v>15.3679665752588</v>
+        <v>10.25903903950154</v>
       </c>
       <c r="I2">
-        <v>26.06348915289791</v>
+        <v>16.76034306791403</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.899114111532027</v>
+        <v>15.19961453229202</v>
       </c>
       <c r="L2">
-        <v>9.374449907358573</v>
+        <v>7.476535576803673</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.62611424727102</v>
+        <v>12.7396504588262</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.3598171183138</v>
+        <v>11.44979493614917</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.160803378983115</v>
+        <v>4.022555504519503</v>
       </c>
       <c r="E3">
-        <v>14.13050070204311</v>
+        <v>8.934162004394816</v>
       </c>
       <c r="F3">
-        <v>27.08962549683395</v>
+        <v>21.96369269375995</v>
       </c>
       <c r="G3">
-        <v>33.8286027481911</v>
+        <v>29.98298156461577</v>
       </c>
       <c r="H3">
-        <v>15.39610713573379</v>
+        <v>10.16643396212546</v>
       </c>
       <c r="I3">
-        <v>26.15367265503337</v>
+        <v>16.89968526028142</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.573744014197953</v>
+        <v>14.27096809174601</v>
       </c>
       <c r="L3">
-        <v>9.33288049383826</v>
+        <v>7.155899149508049</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.6900717145537</v>
+        <v>12.96005239159377</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.28533463329183</v>
+        <v>11.03681934620212</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.150876610175571</v>
+        <v>3.995350044659794</v>
       </c>
       <c r="E4">
-        <v>14.14552958154498</v>
+        <v>8.958053230401919</v>
       </c>
       <c r="F4">
-        <v>27.05539240173879</v>
+        <v>21.50157040974145</v>
       </c>
       <c r="G4">
-        <v>33.74571990956162</v>
+        <v>29.25675396998447</v>
       </c>
       <c r="H4">
-        <v>15.41638499060262</v>
+        <v>10.11717425492738</v>
       </c>
       <c r="I4">
-        <v>26.21341704443844</v>
+        <v>16.99641558942597</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.37031886247274</v>
+        <v>13.67075041536631</v>
       </c>
       <c r="L4">
-        <v>9.309188732026564</v>
+        <v>6.95582740368095</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.73114908080441</v>
+        <v>13.09821743763911</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.25554569527032</v>
+        <v>10.86509578096784</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.146785479991697</v>
+        <v>3.984153704984795</v>
       </c>
       <c r="E5">
-        <v>14.151894477968</v>
+        <v>8.968304121355102</v>
       </c>
       <c r="F5">
-        <v>27.04340156231003</v>
+        <v>21.3155493752005</v>
       </c>
       <c r="G5">
-        <v>33.71478929362857</v>
+        <v>28.96366971248954</v>
       </c>
       <c r="H5">
-        <v>15.42540142583807</v>
+        <v>10.09896264030468</v>
       </c>
       <c r="I5">
-        <v>26.2388619031735</v>
+        <v>17.0385344610842</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.286642077663819</v>
+        <v>13.41862191376377</v>
       </c>
       <c r="L5">
-        <v>9.300002362031014</v>
+        <v>6.873608706466233</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.7483442362025</v>
+        <v>13.15526101405991</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.25063417224965</v>
+        <v>10.83638009695937</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.146103401532206</v>
+        <v>3.982288093034001</v>
       </c>
       <c r="E6">
-        <v>14.15296590511346</v>
+        <v>8.970037073264759</v>
       </c>
       <c r="F6">
-        <v>27.04152905889603</v>
+        <v>21.28480630745644</v>
       </c>
       <c r="G6">
-        <v>33.70982577916244</v>
+        <v>28.91518775384377</v>
       </c>
       <c r="H6">
-        <v>15.42694404252248</v>
+        <v>10.0960495860433</v>
       </c>
       <c r="I6">
-        <v>26.24315333179207</v>
+        <v>17.04568828762953</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.272704768735288</v>
+        <v>13.37630186429089</v>
       </c>
       <c r="L6">
-        <v>9.298505459783838</v>
+        <v>6.859918507716984</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.75122704739082</v>
+        <v>13.1647785205431</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.28493056831951</v>
+        <v>11.03451704596607</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.150821620576981</v>
+        <v>3.995199484248154</v>
       </c>
       <c r="E7">
-        <v>14.14561444626517</v>
+        <v>8.958189406171371</v>
       </c>
       <c r="F7">
-        <v>27.05522274513116</v>
+        <v>21.49905205478778</v>
       </c>
       <c r="G7">
-        <v>33.74529121895809</v>
+        <v>29.25278922664479</v>
       </c>
       <c r="H7">
-        <v>15.41650354205458</v>
+        <v>10.116921174228</v>
       </c>
       <c r="I7">
-        <v>26.2137557556828</v>
+        <v>16.9969728251676</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.369193334119561</v>
+        <v>13.66738059829814</v>
       </c>
       <c r="L7">
-        <v>9.309062936134064</v>
+        <v>6.954721193604193</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.73137913340283</v>
+        <v>13.09898371576278</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.44113517387515</v>
+        <v>11.87820494552845</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.171237151039152</v>
+        <v>4.051194572887161</v>
       </c>
       <c r="E8">
-        <v>14.11528415502179</v>
+        <v>8.910459265940364</v>
       </c>
       <c r="F8">
-        <v>27.13282814822223</v>
+        <v>22.46402727778261</v>
       </c>
       <c r="G8">
-        <v>33.92669854735763</v>
+        <v>30.76660844142629</v>
       </c>
       <c r="H8">
-        <v>15.37704623370201</v>
+        <v>10.22550290050135</v>
       </c>
       <c r="I8">
-        <v>26.09367674364303</v>
+        <v>16.80600162699308</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.787762553624505</v>
+        <v>14.88565268031738</v>
       </c>
       <c r="L8">
-        <v>9.35974123732878</v>
+        <v>7.366709727558203</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.64779251232003</v>
+        <v>12.81507265591846</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.7628381313277</v>
+        <v>13.41191910676227</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.209767252606843</v>
+        <v>4.157114444911021</v>
       </c>
       <c r="E9">
-        <v>14.06335687994873</v>
+        <v>8.83401507704931</v>
       </c>
       <c r="F9">
-        <v>27.34604631086015</v>
+        <v>24.41226120308788</v>
       </c>
       <c r="G9">
-        <v>34.37000779596629</v>
+        <v>33.7977923309602</v>
       </c>
       <c r="H9">
-        <v>15.32351808537059</v>
+        <v>10.50077025224744</v>
       </c>
       <c r="I9">
-        <v>25.89291713265176</v>
+        <v>16.52537065532538</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.57415045483488</v>
+        <v>17.03664344293938</v>
       </c>
       <c r="L9">
-        <v>9.47329971008355</v>
+        <v>8.166632930393416</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.49815589828879</v>
+        <v>12.27955458001551</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.0066379640546</v>
+        <v>14.45849429459945</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.237115919149676</v>
+        <v>4.23226006389233</v>
       </c>
       <c r="E10">
-        <v>14.02977777689156</v>
+        <v>8.789166835157811</v>
       </c>
       <c r="F10">
-        <v>27.53907979483082</v>
+        <v>25.86660034146768</v>
       </c>
       <c r="G10">
-        <v>34.74694818461435</v>
+        <v>36.04530771803989</v>
       </c>
       <c r="H10">
-        <v>15.29878788078443</v>
+        <v>10.74360010584501</v>
       </c>
       <c r="I10">
-        <v>25.76662349422828</v>
+        <v>16.3840445720819</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.12434979947011</v>
+        <v>18.47318123337823</v>
       </c>
       <c r="L10">
-        <v>9.564858958218032</v>
+        <v>8.896060884102731</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.39683130058738</v>
+        <v>11.89714984502223</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.118744992267</v>
+        <v>14.91628949799212</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.249340327018202</v>
+        <v>4.265805112803639</v>
       </c>
       <c r="E11">
-        <v>14.01548800906574</v>
+        <v>8.771440009065994</v>
       </c>
       <c r="F11">
-        <v>27.63457349322811</v>
+        <v>26.53134722142175</v>
       </c>
       <c r="G11">
-        <v>34.92901043061406</v>
+        <v>37.06944143120503</v>
       </c>
       <c r="H11">
-        <v>15.29071639967584</v>
+        <v>10.86338770147192</v>
       </c>
       <c r="I11">
-        <v>25.71378274038551</v>
+        <v>16.33562818422027</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.36749340855789</v>
+        <v>19.09600128907449</v>
       </c>
       <c r="L11">
-        <v>9.6081561525046</v>
+        <v>9.212232043645944</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.35258722491817</v>
+        <v>11.72513125031894</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.16133430288896</v>
+        <v>15.08696544152246</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.253937452745299</v>
+        <v>4.278411087509101</v>
       </c>
       <c r="E12">
-        <v>14.01021807124887</v>
+        <v>8.765132865606631</v>
       </c>
       <c r="F12">
-        <v>27.6718170371582</v>
+        <v>26.78340648045386</v>
       </c>
       <c r="G12">
-        <v>34.99942408599708</v>
+        <v>37.45733971623088</v>
       </c>
       <c r="H12">
-        <v>15.28811743248314</v>
+        <v>10.91012729010235</v>
       </c>
       <c r="I12">
-        <v>25.69443721527226</v>
+        <v>16.3197356348482</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.45845437772809</v>
+        <v>19.32749197922922</v>
       </c>
       <c r="L12">
-        <v>9.624777593416889</v>
+        <v>9.329745508075234</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.33609761125181</v>
+        <v>11.66023158177228</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.15215641830142</v>
+        <v>15.05032718210337</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.252948815682275</v>
+        <v>4.27570054608675</v>
       </c>
       <c r="E13">
-        <v>14.01134676967759</v>
+        <v>8.766472821503324</v>
       </c>
       <c r="F13">
-        <v>27.66374822366416</v>
+        <v>26.72910773481843</v>
       </c>
       <c r="G13">
-        <v>34.9841947051913</v>
+        <v>37.37379735466727</v>
       </c>
       <c r="H13">
-        <v>15.28865681232303</v>
+        <v>10.89999917121014</v>
       </c>
       <c r="I13">
-        <v>25.69857406590138</v>
+        <v>16.32304716319767</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.438915021339</v>
+        <v>19.27782919702763</v>
       </c>
       <c r="L13">
-        <v>9.621188008707204</v>
+        <v>9.304534718636051</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.33963719326711</v>
+        <v>11.67419885713142</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.12224630376686</v>
+        <v>14.93038507017797</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.249719181296165</v>
+        <v>4.266844181239219</v>
       </c>
       <c r="E14">
-        <v>14.0150516189537</v>
+        <v>8.770912858486465</v>
       </c>
       <c r="F14">
-        <v>27.63761598990024</v>
+        <v>26.55207817175596</v>
       </c>
       <c r="G14">
-        <v>34.93477424161817</v>
+        <v>37.10135319531641</v>
       </c>
       <c r="H14">
-        <v>15.2904934094894</v>
+        <v>10.86720515086817</v>
       </c>
       <c r="I14">
-        <v>25.71217785616686</v>
+        <v>16.33427081874244</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.37499956487044</v>
+        <v>19.11513317047683</v>
       </c>
       <c r="L14">
-        <v>9.609519148908936</v>
+        <v>9.221944091782271</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.35122531732643</v>
+        <v>11.71978733650542</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.10394224835063</v>
+        <v>14.85656670844499</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.247736745747849</v>
+        <v>4.261406653858034</v>
       </c>
       <c r="E15">
-        <v>14.01733933316755</v>
+        <v>8.773685997085883</v>
       </c>
       <c r="F15">
-        <v>27.62174946909888</v>
+        <v>26.44368291556095</v>
       </c>
       <c r="G15">
-        <v>34.90469269397575</v>
+        <v>36.93447980719986</v>
       </c>
       <c r="H15">
-        <v>15.29167797279719</v>
+        <v>10.84729851854486</v>
       </c>
       <c r="I15">
-        <v>25.72059709106301</v>
+        <v>16.34146847508815</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.33570230291248</v>
+        <v>19.01491136061822</v>
       </c>
       <c r="L15">
-        <v>9.602400698815437</v>
+        <v>9.171067800736344</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.35835780795937</v>
+        <v>11.74774165993466</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.99933260436552</v>
+        <v>14.42820343291775</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.236312594197905</v>
+        <v>4.230054530445722</v>
       </c>
       <c r="E16">
-        <v>14.03073144126993</v>
+        <v>8.790380889108073</v>
       </c>
       <c r="F16">
-        <v>27.53299175883084</v>
+        <v>25.82321016323663</v>
       </c>
       <c r="G16">
-        <v>34.73525870340451</v>
+        <v>35.97839738550112</v>
       </c>
       <c r="H16">
-        <v>15.29937937376007</v>
+        <v>10.73596257548416</v>
       </c>
       <c r="I16">
-        <v>25.770169636683</v>
+        <v>16.38754152340433</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.10830854820466</v>
+        <v>18.43186561212326</v>
       </c>
       <c r="L16">
-        <v>9.562061581911417</v>
+        <v>8.875086514729546</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.39975985644604</v>
+        <v>11.90842742773868</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.93544005095161</v>
+        <v>14.1606887918662</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.229248162989119</v>
+        <v>4.210653758521058</v>
       </c>
       <c r="E17">
-        <v>14.03919917580617</v>
+        <v>8.801321946959085</v>
       </c>
       <c r="F17">
-        <v>27.48049392100769</v>
+        <v>25.4432842546653</v>
       </c>
       <c r="G17">
-        <v>34.63399276935839</v>
+        <v>35.3921779854109</v>
       </c>
       <c r="H17">
-        <v>15.30491839901979</v>
+        <v>10.67007677609326</v>
       </c>
       <c r="I17">
-        <v>25.80176250952343</v>
+        <v>16.4199820139047</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.96691642973433</v>
+        <v>18.06636529382506</v>
       </c>
       <c r="L17">
-        <v>9.537728814966744</v>
+        <v>8.689528532380855</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.42563136820299</v>
+        <v>12.00747281590642</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.8988059605378</v>
+        <v>14.00510101775102</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.225164548160476</v>
+        <v>4.199435072495772</v>
       </c>
       <c r="E18">
-        <v>14.04416238140966</v>
+        <v>8.807865333657041</v>
       </c>
       <c r="F18">
-        <v>27.4510230776233</v>
+        <v>25.22506373537313</v>
       </c>
       <c r="G18">
-        <v>34.57674743244934</v>
+        <v>35.05516933981396</v>
       </c>
       <c r="H18">
-        <v>15.3084034502668</v>
+        <v>10.6330563571868</v>
       </c>
       <c r="I18">
-        <v>25.82036782452293</v>
+        <v>16.44012499079176</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.88492334897376</v>
+        <v>17.85324880445021</v>
       </c>
       <c r="L18">
-        <v>9.523888907099604</v>
+        <v>8.581325120166367</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.44068608587317</v>
+        <v>12.06462610762584</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.88642317217734</v>
+        <v>13.95212800304159</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.223778438416189</v>
+        <v>4.195626488580033</v>
       </c>
       <c r="E19">
-        <v>14.04585878731902</v>
+        <v>8.810123214126227</v>
       </c>
       <c r="F19">
-        <v>27.44116984606242</v>
+        <v>25.15123420377833</v>
       </c>
       <c r="G19">
-        <v>34.55753845704581</v>
+        <v>34.94109906194808</v>
       </c>
       <c r="H19">
-        <v>15.30963479060345</v>
+        <v>10.62067104908432</v>
       </c>
       <c r="I19">
-        <v>25.82674175944753</v>
+        <v>16.44719523435431</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.85704990240276</v>
+        <v>17.78059335884819</v>
       </c>
       <c r="L19">
-        <v>9.519230015575037</v>
+        <v>8.54443484156196</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.44581329541504</v>
+        <v>12.08401014565532</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.94222985855721</v>
+        <v>14.18934465833452</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.230002295034162</v>
+        <v>4.212725237088208</v>
       </c>
       <c r="E20">
-        <v>14.03828817089772</v>
+        <v>8.800131194964198</v>
       </c>
       <c r="F20">
-        <v>27.48600757632205</v>
+        <v>25.48369764786979</v>
       </c>
       <c r="G20">
-        <v>34.64466955665858</v>
+        <v>35.45456591064036</v>
       </c>
       <c r="H20">
-        <v>15.30429779531823</v>
+        <v>10.6769995586964</v>
       </c>
       <c r="I20">
-        <v>25.79835447626334</v>
+        <v>16.41637394727918</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.98203765037197</v>
+        <v>18.10557222010336</v>
       </c>
       <c r="L20">
-        <v>9.540303048331092</v>
+        <v>8.709433935659433</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.4228592909379</v>
+        <v>11.99691039098962</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.13102820190091</v>
+        <v>14.96568805484144</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.250668678146954</v>
+        <v>4.269448175366063</v>
       </c>
       <c r="E21">
-        <v>14.01395958383261</v>
+        <v>8.769597524270086</v>
       </c>
       <c r="F21">
-        <v>27.645262480133</v>
+        <v>26.60406778385032</v>
       </c>
       <c r="G21">
-        <v>34.94925074975119</v>
+        <v>37.18137551052505</v>
       </c>
       <c r="H21">
-        <v>15.28994153635179</v>
+        <v>10.87679983498232</v>
       </c>
       <c r="I21">
-        <v>25.70816406045313</v>
+        <v>16.33090658324519</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.39380389798168</v>
+        <v>19.16303874218315</v>
       </c>
       <c r="L21">
-        <v>9.612940539283102</v>
+        <v>9.24626273234729</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.34781443136961</v>
+        <v>11.7063907028759</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.25519976937179</v>
+        <v>15.45743407210493</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.2639884907681</v>
+        <v>4.305953547834818</v>
       </c>
       <c r="E22">
-        <v>13.99888277948689</v>
+        <v>8.752017817242081</v>
       </c>
       <c r="F22">
-        <v>27.75564057177641</v>
+        <v>27.33820826976575</v>
       </c>
       <c r="G22">
-        <v>35.15685766503334</v>
+        <v>38.31037949547692</v>
       </c>
       <c r="H22">
-        <v>15.28322579950185</v>
+        <v>11.01543386366955</v>
       </c>
       <c r="I22">
-        <v>25.65309092623277</v>
+        <v>16.28936047698245</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.70726560484622</v>
+        <v>19.82878477621743</v>
       </c>
       <c r="L22">
-        <v>9.661723713596023</v>
+        <v>9.584227524456313</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.30031034340416</v>
+        <v>11.51789848531923</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.18886742902889</v>
+        <v>15.19642310603232</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.256896831125035</v>
+        <v>4.286523314494451</v>
       </c>
       <c r="E23">
-        <v>14.00685435955139</v>
+        <v>8.761175469337466</v>
       </c>
       <c r="F23">
-        <v>27.69616157638657</v>
+        <v>26.94624012732745</v>
       </c>
       <c r="G23">
-        <v>35.04529012392241</v>
+        <v>37.70781012199601</v>
       </c>
       <c r="H23">
-        <v>15.2865659838007</v>
+        <v>10.94069301749603</v>
       </c>
       <c r="I23">
-        <v>25.68212989030579</v>
+        <v>16.31017016519657</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.52916510722073</v>
+        <v>19.4757652100318</v>
       </c>
       <c r="L23">
-        <v>9.635571053118108</v>
+        <v>9.405015308128185</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.32552347208282</v>
+        <v>11.61838765602708</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.9391598766998</v>
+        <v>14.17639491270348</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.229661420942979</v>
+        <v>4.211788923475853</v>
       </c>
       <c r="E24">
-        <v>14.03869974033223</v>
+        <v>8.800668746751013</v>
       </c>
       <c r="F24">
-        <v>27.4835126367328</v>
+        <v>25.46542610801853</v>
       </c>
       <c r="G24">
-        <v>34.63983954382014</v>
+        <v>35.42636026426052</v>
       </c>
       <c r="H24">
-        <v>15.30457743392784</v>
+        <v>10.67386709844222</v>
       </c>
       <c r="I24">
-        <v>25.79989387087682</v>
+        <v>16.41800051731968</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.97520353547583</v>
+        <v>18.0878560717085</v>
       </c>
       <c r="L24">
-        <v>9.539138771463998</v>
+        <v>8.700439451423218</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.42411198363831</v>
+        <v>12.00168500386223</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.67435950841486</v>
+        <v>13.01072303461906</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.199509270393776</v>
+        <v>4.128908608184147</v>
       </c>
       <c r="E25">
-        <v>14.07659949799086</v>
+        <v>8.852775916472186</v>
       </c>
       <c r="F25">
-        <v>27.28190737053887</v>
+        <v>23.88045649420469</v>
       </c>
       <c r="G25">
-        <v>34.24091023911562</v>
+        <v>32.97306569206459</v>
       </c>
       <c r="H25">
-        <v>15.33543909731818</v>
+        <v>10.41935142789066</v>
       </c>
       <c r="I25">
-        <v>25.94350722724192</v>
+        <v>16.59047996520341</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.3658185611294</v>
+        <v>16.48013730064922</v>
       </c>
       <c r="L25">
-        <v>9.44111238363897</v>
+        <v>7.938085532682083</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.53711750372055</v>
+        <v>12.42234309200269</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.0989404011718</v>
+        <v>6.074693115203961</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.066115205848201</v>
+        <v>3.879295300500516</v>
       </c>
       <c r="E2">
-        <v>8.898659107608141</v>
+        <v>14.74278792936003</v>
       </c>
       <c r="F2">
-        <v>22.7297310080254</v>
+        <v>24.01703373702279</v>
       </c>
       <c r="G2">
-        <v>31.18176477992789</v>
+        <v>33.54105578036528</v>
       </c>
       <c r="H2">
-        <v>10.25903903950154</v>
+        <v>2.122412313929991</v>
       </c>
       <c r="I2">
-        <v>16.76034306791403</v>
+        <v>3.180584697166811</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.67425061650069</v>
       </c>
       <c r="K2">
-        <v>15.19961453229202</v>
+        <v>14.55768924498974</v>
       </c>
       <c r="L2">
-        <v>7.476535576803673</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.8430260901591</v>
       </c>
       <c r="N2">
-        <v>12.7396504588262</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.61075277767328</v>
+      </c>
+      <c r="P2">
+        <v>12.68429466583028</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.44979493614917</v>
+        <v>5.739642628347561</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.022555504519503</v>
+        <v>3.833096232381879</v>
       </c>
       <c r="E3">
-        <v>8.934162004394816</v>
+        <v>13.94679063750204</v>
       </c>
       <c r="F3">
-        <v>21.96369269375995</v>
+        <v>23.05755063580157</v>
       </c>
       <c r="G3">
-        <v>29.98298156461577</v>
+        <v>32.01795030121622</v>
       </c>
       <c r="H3">
-        <v>10.16643396212546</v>
+        <v>1.881737574641597</v>
       </c>
       <c r="I3">
-        <v>16.89968526028142</v>
+        <v>3.286583453754936</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.49108841859518</v>
       </c>
       <c r="K3">
-        <v>14.27096809174601</v>
+        <v>14.67304765716301</v>
       </c>
       <c r="L3">
-        <v>7.155899149508049</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.79853222137977</v>
       </c>
       <c r="N3">
-        <v>12.96005239159377</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.63414728859177</v>
+      </c>
+      <c r="P3">
+        <v>12.83914999672603</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.03681934620212</v>
+        <v>5.518764415436697</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.995350044659794</v>
+        <v>3.803718208692949</v>
       </c>
       <c r="E4">
-        <v>8.958053230401919</v>
+        <v>13.43395185935665</v>
       </c>
       <c r="F4">
-        <v>21.50157040974145</v>
+        <v>22.46153649026631</v>
       </c>
       <c r="G4">
-        <v>29.25675396998447</v>
+        <v>31.06483573843184</v>
       </c>
       <c r="H4">
-        <v>10.11717425492738</v>
+        <v>1.729022740655654</v>
       </c>
       <c r="I4">
-        <v>16.99641558942597</v>
+        <v>3.354759423945803</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.38192174794017</v>
       </c>
       <c r="K4">
-        <v>13.67075041536631</v>
+        <v>14.74488499355625</v>
       </c>
       <c r="L4">
-        <v>6.95582740368095</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>15.12417586809247</v>
       </c>
       <c r="N4">
-        <v>13.09821743763911</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.00518603349828</v>
+      </c>
+      <c r="P4">
+        <v>12.93523386954554</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.86509578096784</v>
+        <v>5.412772600063</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.984153704984795</v>
+        <v>3.791929476132736</v>
       </c>
       <c r="E5">
-        <v>8.968304121355102</v>
+        <v>13.2170423075416</v>
       </c>
       <c r="F5">
-        <v>21.3155493752005</v>
+        <v>22.21011069252842</v>
       </c>
       <c r="G5">
-        <v>28.96366971248954</v>
+        <v>30.65947394102808</v>
       </c>
       <c r="H5">
-        <v>10.09896264030468</v>
+        <v>1.665442852289682</v>
       </c>
       <c r="I5">
-        <v>17.0385344610842</v>
+        <v>3.386226496589186</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.335781373155</v>
       </c>
       <c r="K5">
-        <v>13.41862191376377</v>
+        <v>14.76837508346389</v>
       </c>
       <c r="L5">
-        <v>6.873608706466233</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.84510029101968</v>
       </c>
       <c r="N5">
-        <v>13.15526101405991</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.74352085969161</v>
+      </c>
+      <c r="P5">
+        <v>12.97334905403096</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.83638009695937</v>
+        <v>5.38000167925486</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.982288093034001</v>
+        <v>3.790490280490634</v>
       </c>
       <c r="E6">
-        <v>8.970037073264759</v>
+        <v>13.17832456479531</v>
       </c>
       <c r="F6">
-        <v>21.28480630745644</v>
+        <v>22.15956398514776</v>
       </c>
       <c r="G6">
-        <v>28.91518775384377</v>
+        <v>30.57611011664201</v>
       </c>
       <c r="H6">
-        <v>10.0960495860433</v>
+        <v>1.654710618508579</v>
       </c>
       <c r="I6">
-        <v>17.04568828762953</v>
+        <v>3.395206692040985</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.32511905390285</v>
       </c>
       <c r="K6">
-        <v>13.37630186429089</v>
+        <v>14.7649292387045</v>
       </c>
       <c r="L6">
-        <v>6.859918507716984</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.80317613000335</v>
       </c>
       <c r="N6">
-        <v>13.1647785205431</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.70197450607622</v>
+      </c>
+      <c r="P6">
+        <v>12.97810149566675</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.03451704596607</v>
+        <v>5.477329344450813</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.995199484248154</v>
+        <v>3.805032163127303</v>
       </c>
       <c r="E7">
-        <v>8.958189406171371</v>
+        <v>13.42479409403096</v>
       </c>
       <c r="F7">
-        <v>21.49905205478778</v>
+        <v>22.43468420574393</v>
       </c>
       <c r="G7">
-        <v>29.25278922664479</v>
+        <v>31.01689140122431</v>
       </c>
       <c r="H7">
-        <v>10.116921174228</v>
+        <v>1.727910056055247</v>
       </c>
       <c r="I7">
-        <v>16.9969728251676</v>
+        <v>3.364971720259723</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.37302233284054</v>
       </c>
       <c r="K7">
-        <v>13.66738059829814</v>
+        <v>14.72510143379991</v>
       </c>
       <c r="L7">
-        <v>6.954721193604193</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>15.13357436053487</v>
       </c>
       <c r="N7">
-        <v>13.09898371576278</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.00793214450084</v>
+      </c>
+      <c r="P7">
+        <v>12.93145557062073</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.87820494552845</v>
+        <v>5.912875595705834</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.051194572887161</v>
+        <v>3.865589432819339</v>
       </c>
       <c r="E8">
-        <v>8.910459265940364</v>
+        <v>14.46563241607561</v>
       </c>
       <c r="F8">
-        <v>22.46402727778261</v>
+        <v>23.65838026297128</v>
       </c>
       <c r="G8">
-        <v>30.76660844142629</v>
+        <v>32.96694418819463</v>
       </c>
       <c r="H8">
-        <v>10.22550290050135</v>
+        <v>2.040120087364001</v>
       </c>
       <c r="I8">
-        <v>16.80600162699308</v>
+        <v>3.228847871353224</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.59976509220076</v>
       </c>
       <c r="K8">
-        <v>14.88565268031738</v>
+        <v>14.57080536291462</v>
       </c>
       <c r="L8">
-        <v>7.366709727558203</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>16.50585761035819</v>
       </c>
       <c r="N8">
-        <v>12.81507265591846</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>16.28782530654277</v>
+      </c>
+      <c r="P8">
+        <v>12.73208911270569</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.41191910676227</v>
+        <v>6.709890327049356</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.157114444911021</v>
+        <v>3.973424847348883</v>
       </c>
       <c r="E9">
-        <v>8.83401507704931</v>
+        <v>16.32449822110677</v>
       </c>
       <c r="F9">
-        <v>24.41226120308788</v>
+        <v>26.03038091520145</v>
       </c>
       <c r="G9">
-        <v>33.7977923309602</v>
+        <v>36.70106049692116</v>
       </c>
       <c r="H9">
-        <v>10.50077025224744</v>
+        <v>2.614776715159005</v>
       </c>
       <c r="I9">
-        <v>16.52537065532538</v>
+        <v>2.970133534425063</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.08430436176899</v>
       </c>
       <c r="K9">
-        <v>17.03664344293938</v>
+        <v>14.31171795170281</v>
       </c>
       <c r="L9">
-        <v>8.166632930393416</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>18.91385354929942</v>
       </c>
       <c r="N9">
-        <v>12.27955458001551</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.55190887912327</v>
+      </c>
+      <c r="P9">
+        <v>12.35539564482386</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.45849429459945</v>
+        <v>7.224390675704385</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.23226006389233</v>
+        <v>4.066658255600843</v>
       </c>
       <c r="E10">
-        <v>8.789166835157811</v>
+        <v>17.08337715372964</v>
       </c>
       <c r="F10">
-        <v>25.86660034146768</v>
+        <v>27.54859127165662</v>
       </c>
       <c r="G10">
-        <v>36.04530771803989</v>
+        <v>39.02425360100335</v>
       </c>
       <c r="H10">
-        <v>10.74360010584501</v>
+        <v>2.990228960828393</v>
       </c>
       <c r="I10">
-        <v>16.3840445720819</v>
+        <v>2.803535103335398</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.39181152241536</v>
       </c>
       <c r="K10">
-        <v>18.47318123337823</v>
+        <v>14.07593583788176</v>
       </c>
       <c r="L10">
-        <v>8.896060884102731</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>20.49766234902269</v>
       </c>
       <c r="N10">
-        <v>11.89714984502223</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>19.77308632990454</v>
+      </c>
+      <c r="P10">
+        <v>12.07009829034368</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.91628949799212</v>
+        <v>7.57640485258138</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.265805112803639</v>
+        <v>4.284535230380569</v>
       </c>
       <c r="E11">
-        <v>8.771440009065994</v>
+        <v>13.4910478064532</v>
       </c>
       <c r="F11">
-        <v>26.53134722142175</v>
+        <v>26.81171702214183</v>
       </c>
       <c r="G11">
-        <v>37.06944143120503</v>
+        <v>37.53771945935021</v>
       </c>
       <c r="H11">
-        <v>10.86338770147192</v>
+        <v>3.579632672661503</v>
       </c>
       <c r="I11">
-        <v>16.33562818422027</v>
+        <v>2.777289214498044</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.00498254469283</v>
       </c>
       <c r="K11">
-        <v>19.09600128907449</v>
+        <v>13.60716941530775</v>
       </c>
       <c r="L11">
-        <v>9.212232043645944</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>20.92887234203378</v>
       </c>
       <c r="N11">
-        <v>11.72513125031894</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>17.75327371695569</v>
+      </c>
+      <c r="P11">
+        <v>11.87371861966579</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.08696544152246</v>
+        <v>7.823966260943093</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.278411087509101</v>
+        <v>4.463543392367037</v>
       </c>
       <c r="E12">
-        <v>8.765132865606631</v>
+        <v>10.86394982609899</v>
       </c>
       <c r="F12">
-        <v>26.78340648045386</v>
+        <v>25.88283800764177</v>
       </c>
       <c r="G12">
-        <v>37.45733971623088</v>
+        <v>35.82151689950074</v>
       </c>
       <c r="H12">
-        <v>10.91012729010235</v>
+        <v>4.61702786036642</v>
       </c>
       <c r="I12">
-        <v>16.3197356348482</v>
+        <v>2.769473480220292</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.61554896615561</v>
       </c>
       <c r="K12">
-        <v>19.32749197922922</v>
+        <v>13.30898833786905</v>
       </c>
       <c r="L12">
-        <v>9.329745508075234</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>20.95622297119755</v>
       </c>
       <c r="N12">
-        <v>11.66023158177228</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.7705362471592</v>
+      </c>
+      <c r="P12">
+        <v>11.7996856185046</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.05032718210337</v>
+        <v>7.965368073856148</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.27570054608675</v>
+        <v>4.623361624673341</v>
       </c>
       <c r="E13">
-        <v>8.766472821503324</v>
+        <v>9.212837884525914</v>
       </c>
       <c r="F13">
-        <v>26.72910773481843</v>
+        <v>24.6915356714208</v>
       </c>
       <c r="G13">
-        <v>37.37379735466727</v>
+        <v>33.71606011291811</v>
       </c>
       <c r="H13">
-        <v>10.89999917121014</v>
+        <v>5.80542569569763</v>
       </c>
       <c r="I13">
-        <v>16.32304716319767</v>
+        <v>2.790843326505128</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.18319982095133</v>
       </c>
       <c r="K13">
-        <v>19.27782919702763</v>
+        <v>13.09500042559056</v>
       </c>
       <c r="L13">
-        <v>9.304534718636051</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>20.69123519426051</v>
       </c>
       <c r="N13">
-        <v>11.67419885713142</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.64675412358415</v>
+      </c>
+      <c r="P13">
+        <v>11.80638023497503</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.93038507017797</v>
+        <v>8.00931953130098</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.266844181239219</v>
+        <v>4.728189142022306</v>
       </c>
       <c r="E14">
-        <v>8.770912858486465</v>
+        <v>8.941502276544009</v>
       </c>
       <c r="F14">
-        <v>26.55207817175596</v>
+        <v>23.71950997786841</v>
       </c>
       <c r="G14">
-        <v>37.10135319531641</v>
+        <v>32.0290313952944</v>
       </c>
       <c r="H14">
-        <v>10.86720515086817</v>
+        <v>6.690646128428401</v>
       </c>
       <c r="I14">
-        <v>16.33427081874244</v>
+        <v>2.821845103528523</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.85760019481053</v>
       </c>
       <c r="K14">
-        <v>19.11513317047683</v>
+        <v>12.98342467262711</v>
       </c>
       <c r="L14">
-        <v>9.221944091782271</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>20.37385530994592</v>
       </c>
       <c r="N14">
-        <v>11.71978733650542</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.12098269395836</v>
+      </c>
+      <c r="P14">
+        <v>11.84898240384559</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.85656670844499</v>
+        <v>7.9841918652988</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.261406653858034</v>
+        <v>4.748480758249134</v>
       </c>
       <c r="E15">
-        <v>8.773685997085883</v>
+        <v>8.995428038922215</v>
       </c>
       <c r="F15">
-        <v>26.44368291556095</v>
+        <v>23.41849548212454</v>
       </c>
       <c r="G15">
-        <v>36.93447980719986</v>
+        <v>31.51880445833473</v>
       </c>
       <c r="H15">
-        <v>10.84729851854486</v>
+        <v>6.892797228698718</v>
       </c>
       <c r="I15">
-        <v>16.34146847508815</v>
+        <v>2.840560585256984</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.767552265936382</v>
       </c>
       <c r="K15">
-        <v>19.01491136061822</v>
+        <v>12.96763092137997</v>
       </c>
       <c r="L15">
-        <v>9.171067800736344</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>20.23642629679616</v>
       </c>
       <c r="N15">
-        <v>11.74774165993466</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.73502147221747</v>
+      </c>
+      <c r="P15">
+        <v>11.8727687297475</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.42820343291775</v>
+        <v>7.736429740841613</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.230054530445722</v>
+        <v>4.67597225621216</v>
       </c>
       <c r="E16">
-        <v>8.790380889108073</v>
+        <v>8.817612429631307</v>
       </c>
       <c r="F16">
-        <v>25.82321016323663</v>
+        <v>22.92833475418535</v>
       </c>
       <c r="G16">
-        <v>35.97839738550112</v>
+        <v>30.79124760677634</v>
       </c>
       <c r="H16">
-        <v>10.73596257548416</v>
+        <v>6.615948953282345</v>
       </c>
       <c r="I16">
-        <v>16.38754152340433</v>
+        <v>2.912602425416531</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.70640185817288</v>
       </c>
       <c r="K16">
-        <v>18.43186561212326</v>
+        <v>13.10362230385191</v>
       </c>
       <c r="L16">
-        <v>8.875086514729546</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>19.6291558419977</v>
       </c>
       <c r="N16">
-        <v>11.90842742773868</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.45562034105812</v>
+      </c>
+      <c r="P16">
+        <v>11.98266607374419</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.1606887918662</v>
+        <v>7.515272404528297</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.210653758521058</v>
+        <v>4.562766503817459</v>
       </c>
       <c r="E17">
-        <v>8.801321946959085</v>
+        <v>8.651058767139521</v>
       </c>
       <c r="F17">
-        <v>25.4432842546653</v>
+        <v>23.08996606636657</v>
       </c>
       <c r="G17">
-        <v>35.3921779854109</v>
+        <v>31.17057273431034</v>
       </c>
       <c r="H17">
-        <v>10.67007677609326</v>
+        <v>5.881902566600258</v>
       </c>
       <c r="I17">
-        <v>16.4199820139047</v>
+        <v>2.952436737299149</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.836279781944299</v>
       </c>
       <c r="K17">
-        <v>18.06636529382506</v>
+        <v>13.26390643290571</v>
       </c>
       <c r="L17">
-        <v>8.689528532380855</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>19.33091326960796</v>
       </c>
       <c r="N17">
-        <v>12.00747281590642</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.12361457054829</v>
+      </c>
+      <c r="P17">
+        <v>12.04450145955774</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.00510101775102</v>
+        <v>7.325630084939416</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.199435072495772</v>
+        <v>4.406100757166468</v>
       </c>
       <c r="E18">
-        <v>8.807865333657041</v>
+        <v>9.382505064914996</v>
       </c>
       <c r="F18">
-        <v>25.22506373537313</v>
+        <v>23.84284728009803</v>
       </c>
       <c r="G18">
-        <v>35.05516933981396</v>
+        <v>32.56999456737687</v>
       </c>
       <c r="H18">
-        <v>10.6330563571868</v>
+        <v>4.726172075442336</v>
       </c>
       <c r="I18">
-        <v>16.44012499079176</v>
+        <v>2.956956717295943</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.14778424380612</v>
       </c>
       <c r="K18">
-        <v>17.85324880445021</v>
+        <v>13.48558084624679</v>
       </c>
       <c r="L18">
-        <v>8.581325120166367</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>19.2658891934666</v>
       </c>
       <c r="N18">
-        <v>12.06462610762584</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.70450667672878</v>
+      </c>
+      <c r="P18">
+        <v>12.08484811080716</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.95212800304159</v>
+        <v>7.119500870857206</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.195626488580033</v>
+        <v>4.240735145964736</v>
       </c>
       <c r="E19">
-        <v>8.810123214126227</v>
+        <v>11.72817791429114</v>
       </c>
       <c r="F19">
-        <v>25.15123420377833</v>
+        <v>24.9617961224863</v>
       </c>
       <c r="G19">
-        <v>34.94109906194808</v>
+        <v>34.59061009859303</v>
       </c>
       <c r="H19">
-        <v>10.62067104908432</v>
+        <v>3.516661301524408</v>
       </c>
       <c r="I19">
-        <v>16.44719523435431</v>
+        <v>2.951045884616438</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.5654200071184</v>
       </c>
       <c r="K19">
-        <v>17.78059335884819</v>
+        <v>13.73081963324165</v>
       </c>
       <c r="L19">
-        <v>8.54443484156196</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>19.41700505025576</v>
       </c>
       <c r="N19">
-        <v>12.08401014565532</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.87173430001228</v>
+      </c>
+      <c r="P19">
+        <v>12.12044883688078</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.18934465833452</v>
+        <v>6.996428217327849</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.212725237088208</v>
+        <v>4.048347464298767</v>
       </c>
       <c r="E20">
-        <v>8.800131194964198</v>
+        <v>16.85017401243254</v>
       </c>
       <c r="F20">
-        <v>25.48369764786979</v>
+        <v>27.0855782358588</v>
       </c>
       <c r="G20">
-        <v>35.45456591064036</v>
+        <v>38.30081612712078</v>
       </c>
       <c r="H20">
-        <v>10.6769995586964</v>
+        <v>2.890095332499107</v>
       </c>
       <c r="I20">
-        <v>16.41637394727918</v>
+        <v>2.87859564540699</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.28411676585491</v>
       </c>
       <c r="K20">
-        <v>18.10557222010336</v>
+        <v>14.07504037107364</v>
       </c>
       <c r="L20">
-        <v>8.709433935659433</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>20.12260491818926</v>
       </c>
       <c r="N20">
-        <v>11.99691039098962</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>19.46135770263794</v>
+      </c>
+      <c r="P20">
+        <v>12.13325883595206</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.96568805484144</v>
+        <v>7.360612099282575</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.269448175366063</v>
+        <v>4.088741685890503</v>
       </c>
       <c r="E21">
-        <v>8.769597524270086</v>
+        <v>18.15825430919741</v>
       </c>
       <c r="F21">
-        <v>26.60406778385032</v>
+        <v>28.49671312506567</v>
       </c>
       <c r="G21">
-        <v>37.18137551052505</v>
+        <v>40.51863075872567</v>
       </c>
       <c r="H21">
-        <v>10.87679983498232</v>
+        <v>3.212389147359147</v>
       </c>
       <c r="I21">
-        <v>16.33090658324519</v>
+        <v>2.743494907482841</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.62286706232914</v>
       </c>
       <c r="K21">
-        <v>19.16303874218315</v>
+        <v>13.97046512075023</v>
       </c>
       <c r="L21">
-        <v>9.24626273234729</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>21.32961873008738</v>
       </c>
       <c r="N21">
-        <v>11.7063907028759</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>20.81308079921543</v>
+      </c>
+      <c r="P21">
+        <v>11.93269493464144</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.45743407210493</v>
+        <v>7.632949068119117</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.305953547834818</v>
+        <v>4.12142758001616</v>
       </c>
       <c r="E22">
-        <v>8.752017817242081</v>
+        <v>18.74614474031709</v>
       </c>
       <c r="F22">
-        <v>27.33820826976575</v>
+        <v>29.34668877704063</v>
       </c>
       <c r="G22">
-        <v>38.31037949547692</v>
+        <v>41.83613785438951</v>
       </c>
       <c r="H22">
-        <v>11.01543386366955</v>
+        <v>3.40627449811878</v>
       </c>
       <c r="I22">
-        <v>16.28936047698245</v>
+        <v>2.646163034473691</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.82536875018667</v>
       </c>
       <c r="K22">
-        <v>19.82878477621743</v>
+        <v>13.90811257440902</v>
       </c>
       <c r="L22">
-        <v>9.584227524456313</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>22.06189308473549</v>
       </c>
       <c r="N22">
-        <v>11.51789848531923</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>21.50967402387468</v>
+      </c>
+      <c r="P22">
+        <v>11.80133075727726</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.19642310603232</v>
+        <v>7.524207520692662</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.286523314494451</v>
+        <v>4.102161756602922</v>
       </c>
       <c r="E23">
-        <v>8.761175469337466</v>
+        <v>18.43980189485573</v>
       </c>
       <c r="F23">
-        <v>26.94624012732745</v>
+        <v>28.91572142834741</v>
       </c>
       <c r="G23">
-        <v>37.70781012199601</v>
+        <v>41.17318515783608</v>
       </c>
       <c r="H23">
-        <v>10.94069301749603</v>
+        <v>3.303302763968023</v>
       </c>
       <c r="I23">
-        <v>16.31017016519657</v>
+        <v>2.68527044026265</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.72553587539617</v>
       </c>
       <c r="K23">
-        <v>19.4757652100318</v>
+        <v>13.96446064179401</v>
       </c>
       <c r="L23">
-        <v>9.405015308128185</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>21.66230330108927</v>
       </c>
       <c r="N23">
-        <v>11.61838765602708</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>21.13493531654407</v>
+      </c>
+      <c r="P23">
+        <v>11.87558774795215</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.17639491270348</v>
+        <v>7.030846055734026</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.211788923475853</v>
+        <v>4.030172807972116</v>
       </c>
       <c r="E24">
-        <v>8.800668746751013</v>
+        <v>17.2289625286209</v>
       </c>
       <c r="F24">
-        <v>25.46542610801853</v>
+        <v>27.22627995446169</v>
       </c>
       <c r="G24">
-        <v>35.42636026426052</v>
+        <v>38.55666639243271</v>
       </c>
       <c r="H24">
-        <v>10.67386709844222</v>
+        <v>2.906366302882418</v>
       </c>
       <c r="I24">
-        <v>16.41800051731968</v>
+        <v>2.858359491577934</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.33967513145376</v>
       </c>
       <c r="K24">
-        <v>18.0878560717085</v>
+        <v>14.14360090891119</v>
       </c>
       <c r="L24">
-        <v>8.700439451423218</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>20.1096050207767</v>
       </c>
       <c r="N24">
-        <v>12.00168500386223</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.67016583978056</v>
+      </c>
+      <c r="P24">
+        <v>12.15069343755338</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.01072303461906</v>
+        <v>6.44586571270826</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.128908608184147</v>
+        <v>3.947990316213</v>
       </c>
       <c r="E25">
-        <v>8.852775916472186</v>
+        <v>15.83269587125395</v>
       </c>
       <c r="F25">
-        <v>23.88045649420469</v>
+        <v>25.36009922081134</v>
       </c>
       <c r="G25">
-        <v>32.97306569206459</v>
+        <v>35.64373978390501</v>
       </c>
       <c r="H25">
-        <v>10.41935142789066</v>
+        <v>2.462822245572612</v>
       </c>
       <c r="I25">
-        <v>16.59047996520341</v>
+        <v>3.055120544509983</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.93658225616887</v>
       </c>
       <c r="K25">
-        <v>16.48013730064922</v>
+        <v>14.34525049791174</v>
       </c>
       <c r="L25">
-        <v>7.938085532682083</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>18.31033588574163</v>
       </c>
       <c r="N25">
-        <v>12.42234309200269</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>17.97448335037915</v>
+      </c>
+      <c r="P25">
+        <v>12.44976528319114</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.074693115203961</v>
+        <v>5.688230299816312</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.879295300500516</v>
+        <v>3.916357448687213</v>
       </c>
       <c r="E2">
-        <v>14.74278792936003</v>
+        <v>14.62397645337175</v>
       </c>
       <c r="F2">
-        <v>24.01703373702279</v>
+        <v>23.84200388824537</v>
       </c>
       <c r="G2">
-        <v>33.54105578036528</v>
+        <v>32.71151677338491</v>
       </c>
       <c r="H2">
-        <v>2.122412313929991</v>
+        <v>2.119465791743775</v>
       </c>
       <c r="I2">
-        <v>3.180584697166811</v>
+        <v>2.965021938638448</v>
       </c>
       <c r="J2">
-        <v>10.67425061650069</v>
+        <v>11.1383163963208</v>
       </c>
       <c r="K2">
-        <v>14.55768924498974</v>
+        <v>13.84890120117677</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.49588756126382</v>
       </c>
       <c r="M2">
-        <v>16.8430260901591</v>
+        <v>8.94019847285781</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.61075277767328</v>
+        <v>16.84771503085381</v>
       </c>
       <c r="P2">
-        <v>12.68429466583028</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.69804967244388</v>
+      </c>
+      <c r="R2">
+        <v>12.52682072184928</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.739642628347561</v>
+        <v>5.448383302370526</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.833096232381879</v>
+        <v>3.859164537165382</v>
       </c>
       <c r="E3">
-        <v>13.94679063750204</v>
+        <v>13.85088968792633</v>
       </c>
       <c r="F3">
-        <v>23.05755063580157</v>
+        <v>22.92575913783902</v>
       </c>
       <c r="G3">
-        <v>32.01795030121622</v>
+        <v>31.25431039107076</v>
       </c>
       <c r="H3">
-        <v>1.881737574641597</v>
+        <v>1.885035745831977</v>
       </c>
       <c r="I3">
-        <v>3.286583453754936</v>
+        <v>3.052973174855992</v>
       </c>
       <c r="J3">
-        <v>10.49108841859518</v>
+        <v>10.93898945798693</v>
       </c>
       <c r="K3">
-        <v>14.67304765716301</v>
+        <v>13.98056886577448</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.65827164782864</v>
       </c>
       <c r="M3">
-        <v>15.79853222137977</v>
+        <v>9.020411490719169</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.63414728859177</v>
+        <v>15.77977149714958</v>
       </c>
       <c r="P3">
-        <v>12.83914999672603</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.71396730115959</v>
+      </c>
+      <c r="R3">
+        <v>12.67833946461375</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.518764415436697</v>
+        <v>5.288743806410494</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.803718208692949</v>
+        <v>3.822965501085837</v>
       </c>
       <c r="E4">
-        <v>13.43395185935665</v>
+        <v>13.35284798068759</v>
       </c>
       <c r="F4">
-        <v>22.46153649026631</v>
+        <v>22.35596576272571</v>
       </c>
       <c r="G4">
-        <v>31.06483573843184</v>
+        <v>30.34593819621725</v>
       </c>
       <c r="H4">
-        <v>1.729022740655654</v>
+        <v>1.736242696465071</v>
       </c>
       <c r="I4">
-        <v>3.354759423945803</v>
+        <v>3.109921963952761</v>
       </c>
       <c r="J4">
-        <v>10.38192174794017</v>
+        <v>10.81656017245966</v>
       </c>
       <c r="K4">
-        <v>14.74488499355625</v>
+        <v>14.06165853947272</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.76200505509333</v>
       </c>
       <c r="M4">
-        <v>15.12417586809247</v>
+        <v>9.081422159254998</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.00518603349828</v>
+        <v>15.08971671104789</v>
       </c>
       <c r="P4">
-        <v>12.93523386954554</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.08016845134681</v>
+      </c>
+      <c r="R4">
+        <v>12.77246663787196</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.412772600063</v>
+        <v>5.210035159678177</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.791929476132736</v>
+        <v>3.808356540874732</v>
       </c>
       <c r="E5">
-        <v>13.2170423075416</v>
+        <v>13.14230522844972</v>
       </c>
       <c r="F5">
-        <v>22.21011069252842</v>
+        <v>22.11565204703962</v>
       </c>
       <c r="G5">
-        <v>30.65947394102808</v>
+        <v>29.96072115973604</v>
       </c>
       <c r="H5">
-        <v>1.665442852289682</v>
+        <v>1.674294134102303</v>
       </c>
       <c r="I5">
-        <v>3.386226496589186</v>
+        <v>3.137271689082694</v>
       </c>
       <c r="J5">
-        <v>10.335781373155</v>
+        <v>10.76442285051303</v>
       </c>
       <c r="K5">
-        <v>14.76837508346389</v>
+        <v>14.08935010047166</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.79940195628252</v>
       </c>
       <c r="M5">
-        <v>14.84510029101968</v>
+        <v>9.107059953038389</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.74352085969161</v>
+        <v>14.803669874638</v>
       </c>
       <c r="P5">
-        <v>12.97334905403096</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.8163326798153</v>
+      </c>
+      <c r="R5">
+        <v>12.80997641087349</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.38000167925486</v>
+        <v>5.18388090896237</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.790490280490634</v>
+        <v>3.806417276095851</v>
       </c>
       <c r="E6">
-        <v>13.17832456479531</v>
+        <v>13.10483999178179</v>
       </c>
       <c r="F6">
-        <v>22.15956398514776</v>
+        <v>22.06761182192525</v>
       </c>
       <c r="G6">
-        <v>30.57611011664201</v>
+        <v>29.88184495087157</v>
       </c>
       <c r="H6">
-        <v>1.654710618508579</v>
+        <v>1.663845935364382</v>
       </c>
       <c r="I6">
-        <v>3.395206692040985</v>
+        <v>3.146223315472894</v>
       </c>
       <c r="J6">
-        <v>10.32511905390285</v>
+        <v>10.75299595841706</v>
       </c>
       <c r="K6">
-        <v>14.7649292387045</v>
+        <v>14.08734871019325</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.79852037955303</v>
       </c>
       <c r="M6">
-        <v>14.80317613000335</v>
+        <v>9.108852031662265</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.70197450607622</v>
+        <v>14.76025928079297</v>
       </c>
       <c r="P6">
-        <v>12.97810149566675</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.77424312778668</v>
+      </c>
+      <c r="R6">
+        <v>12.81483840105796</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.477329344450813</v>
+        <v>5.257020797261552</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.805032163127303</v>
+        <v>3.82648691255242</v>
       </c>
       <c r="E7">
-        <v>13.42479409403096</v>
+        <v>13.34777731663727</v>
       </c>
       <c r="F7">
-        <v>22.43468420574393</v>
+        <v>22.3041783183242</v>
       </c>
       <c r="G7">
-        <v>31.01689140122431</v>
+        <v>30.38289495615123</v>
       </c>
       <c r="H7">
-        <v>1.727910056055247</v>
+        <v>1.734547093105206</v>
       </c>
       <c r="I7">
-        <v>3.364971720259723</v>
+        <v>3.122087806788322</v>
       </c>
       <c r="J7">
-        <v>10.37302233284054</v>
+        <v>10.75050238041895</v>
       </c>
       <c r="K7">
-        <v>14.72510143379991</v>
+        <v>14.04070006461557</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.74013578802431</v>
       </c>
       <c r="M7">
-        <v>15.13357436053487</v>
+        <v>9.072327466514148</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.00793214450084</v>
+        <v>15.08611065100668</v>
       </c>
       <c r="P7">
-        <v>12.93145557062073</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.07675711085139</v>
+      </c>
+      <c r="R7">
+        <v>12.76812315180877</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.912875595705834</v>
+        <v>5.577333772580348</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.865589432819339</v>
+        <v>3.906658716068328</v>
       </c>
       <c r="E8">
-        <v>14.46563241607561</v>
+        <v>14.36625661216729</v>
       </c>
       <c r="F8">
-        <v>23.65838026297128</v>
+        <v>23.41531518255572</v>
       </c>
       <c r="G8">
-        <v>32.96694418819463</v>
+        <v>32.42058334656591</v>
       </c>
       <c r="H8">
-        <v>2.040120087364001</v>
+        <v>2.037362654966813</v>
       </c>
       <c r="I8">
-        <v>3.228847871353224</v>
+        <v>3.010181469861486</v>
       </c>
       <c r="J8">
-        <v>10.59976509220076</v>
+        <v>10.87239241924392</v>
       </c>
       <c r="K8">
-        <v>14.57080536291462</v>
+        <v>13.86028338393223</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.51895760117</v>
       </c>
       <c r="M8">
-        <v>16.50585761035819</v>
+        <v>8.946031153925999</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.28782530654277</v>
+        <v>16.46445909021179</v>
       </c>
       <c r="P8">
-        <v>12.73208911270569</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.35454090702513</v>
+      </c>
+      <c r="R8">
+        <v>12.57092368875367</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.709890327049356</v>
+        <v>6.149107144504665</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.973424847348883</v>
+        <v>4.043821021388712</v>
       </c>
       <c r="E9">
-        <v>16.32449822110677</v>
+        <v>16.17305543780144</v>
       </c>
       <c r="F9">
-        <v>26.03038091520145</v>
+        <v>25.66207887760308</v>
       </c>
       <c r="G9">
-        <v>36.70106049692116</v>
+        <v>36.05333894314482</v>
       </c>
       <c r="H9">
-        <v>2.614776715159005</v>
+        <v>2.596457947698496</v>
       </c>
       <c r="I9">
-        <v>2.970133534425063</v>
+        <v>2.794087041840426</v>
       </c>
       <c r="J9">
-        <v>11.08430436176899</v>
+        <v>11.33401311863869</v>
       </c>
       <c r="K9">
-        <v>14.31171795170281</v>
+        <v>13.55115690439045</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.15883028884479</v>
       </c>
       <c r="M9">
-        <v>18.91385354929942</v>
+        <v>8.816574879196185</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.55190887912327</v>
+        <v>18.91949887031745</v>
       </c>
       <c r="P9">
-        <v>12.35539564482386</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.63368156165909</v>
+      </c>
+      <c r="R9">
+        <v>12.20221135990711</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.224390675704385</v>
+        <v>6.545234979630239</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.066658255600843</v>
+        <v>4.172608718375064</v>
       </c>
       <c r="E10">
-        <v>17.08337715372964</v>
+        <v>16.91351997694252</v>
       </c>
       <c r="F10">
-        <v>27.54859127165662</v>
+        <v>26.96677941691104</v>
       </c>
       <c r="G10">
-        <v>39.02425360100335</v>
+        <v>38.72230753339176</v>
       </c>
       <c r="H10">
-        <v>2.990228960828393</v>
+        <v>2.958095975442192</v>
       </c>
       <c r="I10">
-        <v>2.803535103335398</v>
+        <v>2.660196953876457</v>
       </c>
       <c r="J10">
-        <v>11.39181152241536</v>
+        <v>11.3070388185431</v>
       </c>
       <c r="K10">
-        <v>14.07593583788176</v>
+        <v>13.26923101060994</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.87706544596107</v>
       </c>
       <c r="M10">
-        <v>20.49766234902269</v>
+        <v>8.731262813239427</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.77308632990454</v>
+        <v>20.4735050686132</v>
       </c>
       <c r="P10">
-        <v>12.07009829034368</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.83722006446992</v>
+      </c>
+      <c r="R10">
+        <v>11.92367077974355</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.57640485258138</v>
+        <v>6.978258621281376</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.284535230380569</v>
+        <v>4.438262221384439</v>
       </c>
       <c r="E11">
-        <v>13.4910478064532</v>
+        <v>13.32597469560776</v>
       </c>
       <c r="F11">
-        <v>26.81171702214183</v>
+        <v>25.97385813938531</v>
       </c>
       <c r="G11">
-        <v>37.53771945935021</v>
+        <v>38.14654107546765</v>
       </c>
       <c r="H11">
-        <v>3.579632672661503</v>
+        <v>3.546544172230931</v>
       </c>
       <c r="I11">
-        <v>2.777289214498044</v>
+        <v>2.649196413826524</v>
       </c>
       <c r="J11">
-        <v>11.00498254469283</v>
+        <v>10.31263254686535</v>
       </c>
       <c r="K11">
-        <v>13.60716941530775</v>
+        <v>12.85303662630994</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.57438164229288</v>
       </c>
       <c r="M11">
-        <v>20.92887234203378</v>
+        <v>8.435454757046241</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.75327371695569</v>
+        <v>20.77105281657361</v>
       </c>
       <c r="P11">
-        <v>11.87371861966579</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.75703996656213</v>
+      </c>
+      <c r="R11">
+        <v>11.76640972353636</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.823966260943093</v>
+        <v>7.300125510562998</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.463543392367037</v>
+        <v>4.642546790347819</v>
       </c>
       <c r="E12">
-        <v>10.86394982609899</v>
+        <v>10.67481357299918</v>
       </c>
       <c r="F12">
-        <v>25.88283800764177</v>
+        <v>24.9508893002178</v>
       </c>
       <c r="G12">
-        <v>35.82151689950074</v>
+        <v>36.8906540367345</v>
       </c>
       <c r="H12">
-        <v>4.61702786036642</v>
+        <v>4.590563742880307</v>
       </c>
       <c r="I12">
-        <v>2.769473480220292</v>
+        <v>2.643768302548324</v>
       </c>
       <c r="J12">
-        <v>10.61554896615561</v>
+        <v>9.686936355685241</v>
       </c>
       <c r="K12">
-        <v>13.30898833786905</v>
+        <v>12.6149716280535</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.42294783668657</v>
       </c>
       <c r="M12">
-        <v>20.95622297119755</v>
+        <v>8.236521699220333</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.7705362471592</v>
+        <v>20.72534466943035</v>
       </c>
       <c r="P12">
-        <v>11.7996856185046</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.74378132731779</v>
+      </c>
+      <c r="R12">
+        <v>11.7263133558683</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.965368073856148</v>
+        <v>7.513394160004633</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.623361624673341</v>
+        <v>4.798487018820367</v>
       </c>
       <c r="E13">
-        <v>9.212837884525914</v>
+        <v>8.989314253381938</v>
       </c>
       <c r="F13">
-        <v>24.6915356714208</v>
+        <v>23.84272146271839</v>
       </c>
       <c r="G13">
-        <v>33.71606011291811</v>
+        <v>34.76707985599498</v>
       </c>
       <c r="H13">
-        <v>5.80542569569763</v>
+        <v>5.786440722790212</v>
       </c>
       <c r="I13">
-        <v>2.790843326505128</v>
+        <v>2.66030852113638</v>
       </c>
       <c r="J13">
-        <v>10.18319982095133</v>
+        <v>9.391170509606086</v>
       </c>
       <c r="K13">
-        <v>13.09500042559056</v>
+        <v>12.47422341399459</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.34398340246394</v>
       </c>
       <c r="M13">
-        <v>20.69123519426051</v>
+        <v>8.090633376290295</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.64675412358415</v>
+        <v>20.44968707338125</v>
       </c>
       <c r="P13">
-        <v>11.80638023497503</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.62010231317259</v>
+      </c>
+      <c r="R13">
+        <v>11.75788188217977</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.00931953130098</v>
+        <v>7.608029560141818</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.728189142022306</v>
+        <v>4.885652730247604</v>
       </c>
       <c r="E14">
-        <v>8.941502276544009</v>
+        <v>8.716018099793761</v>
       </c>
       <c r="F14">
-        <v>23.71950997786841</v>
+        <v>23.00778575470448</v>
       </c>
       <c r="G14">
-        <v>32.0290313952944</v>
+        <v>32.8569298782937</v>
       </c>
       <c r="H14">
-        <v>6.690646128428401</v>
+        <v>6.676294473825678</v>
       </c>
       <c r="I14">
-        <v>2.821845103528523</v>
+        <v>2.685386953842249</v>
       </c>
       <c r="J14">
-        <v>9.85760019481053</v>
+        <v>9.314342603589438</v>
       </c>
       <c r="K14">
-        <v>12.98342467262711</v>
+        <v>12.41543143547874</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.31388129546327</v>
       </c>
       <c r="M14">
-        <v>20.37385530994592</v>
+        <v>8.014101772976751</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.12098269395836</v>
+        <v>20.15162587629517</v>
       </c>
       <c r="P14">
-        <v>11.84898240384559</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.05977028819345</v>
+      </c>
+      <c r="R14">
+        <v>11.80992924688298</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.9841918652988</v>
+        <v>7.596920016258972</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.748480758249134</v>
+        <v>4.895374850780584</v>
       </c>
       <c r="E15">
-        <v>8.995428038922215</v>
+        <v>8.777740934782855</v>
       </c>
       <c r="F15">
-        <v>23.41849548212454</v>
+        <v>22.77440657552219</v>
       </c>
       <c r="G15">
-        <v>31.51880445833473</v>
+        <v>32.20253757567103</v>
       </c>
       <c r="H15">
-        <v>6.892797228698718</v>
+        <v>6.879817852595774</v>
       </c>
       <c r="I15">
-        <v>2.840560585256984</v>
+        <v>2.701976759062563</v>
       </c>
       <c r="J15">
-        <v>9.767552265936382</v>
+        <v>9.349520724477085</v>
       </c>
       <c r="K15">
-        <v>12.96763092137997</v>
+        <v>12.41444404408469</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.31433796595233</v>
       </c>
       <c r="M15">
-        <v>20.23642629679616</v>
+        <v>8.003553021579718</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.73502147221747</v>
+        <v>20.0302883158524</v>
       </c>
       <c r="P15">
-        <v>11.8727687297475</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.66245195848414</v>
+      </c>
+      <c r="R15">
+        <v>11.83317720264546</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.736429740841613</v>
+        <v>7.359305391065465</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.67597225621216</v>
+        <v>4.773332641953573</v>
       </c>
       <c r="E16">
-        <v>8.817612429631307</v>
+        <v>8.635947080522445</v>
       </c>
       <c r="F16">
-        <v>22.92833475418535</v>
+        <v>22.56390738009956</v>
       </c>
       <c r="G16">
-        <v>30.79124760677634</v>
+        <v>30.72618089485982</v>
       </c>
       <c r="H16">
-        <v>6.615948953282345</v>
+        <v>6.606735684764457</v>
       </c>
       <c r="I16">
-        <v>2.912602425416531</v>
+        <v>2.760360895168939</v>
       </c>
       <c r="J16">
-        <v>9.70640185817288</v>
+        <v>9.827598667530932</v>
       </c>
       <c r="K16">
-        <v>13.10362230385191</v>
+        <v>12.56300984860207</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.40642777616704</v>
       </c>
       <c r="M16">
-        <v>19.6291558419977</v>
+        <v>8.100455509337124</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.45562034105812</v>
+        <v>19.51953210603068</v>
       </c>
       <c r="P16">
-        <v>11.98266607374419</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.46736534640377</v>
+      </c>
+      <c r="R16">
+        <v>11.9220842311403</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.515272404528297</v>
+        <v>7.124088263138219</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.562766503817459</v>
+        <v>4.639714874521499</v>
       </c>
       <c r="E17">
-        <v>8.651058767139521</v>
+        <v>8.475954679983952</v>
       </c>
       <c r="F17">
-        <v>23.08996606636657</v>
+        <v>22.8314711697423</v>
       </c>
       <c r="G17">
-        <v>31.17057273431034</v>
+        <v>30.75641911691342</v>
       </c>
       <c r="H17">
-        <v>5.881902566600258</v>
+        <v>5.873661714432163</v>
       </c>
       <c r="I17">
-        <v>2.952436737299149</v>
+        <v>2.793213169742274</v>
       </c>
       <c r="J17">
-        <v>9.836279781944299</v>
+        <v>10.1768588301709</v>
       </c>
       <c r="K17">
-        <v>13.26390643290571</v>
+        <v>12.70788414529093</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.50298587258843</v>
       </c>
       <c r="M17">
-        <v>19.33091326960796</v>
+        <v>8.207701283886108</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.12361457054829</v>
+        <v>19.27117789783831</v>
       </c>
       <c r="P17">
-        <v>12.04450145955774</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.18531439609722</v>
+      </c>
+      <c r="R17">
+        <v>11.96882561327117</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.325630084939416</v>
+        <v>6.886420252492349</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.406100757166468</v>
+        <v>4.477113641408344</v>
       </c>
       <c r="E18">
-        <v>9.382505064914996</v>
+        <v>9.203072627461585</v>
       </c>
       <c r="F18">
-        <v>23.84284728009803</v>
+        <v>23.60016976104315</v>
       </c>
       <c r="G18">
-        <v>32.56999456737687</v>
+        <v>31.96493971048124</v>
       </c>
       <c r="H18">
-        <v>4.726172075442336</v>
+        <v>4.716612830234411</v>
       </c>
       <c r="I18">
-        <v>2.956956717295943</v>
+        <v>2.793522107963361</v>
       </c>
       <c r="J18">
-        <v>10.14778424380612</v>
+        <v>10.56135824526807</v>
       </c>
       <c r="K18">
-        <v>13.48558084624679</v>
+        <v>12.88841909421984</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.63128082649476</v>
       </c>
       <c r="M18">
-        <v>19.2658891934666</v>
+        <v>8.34862237988324</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.70450667672878</v>
+        <v>19.24160925809823</v>
       </c>
       <c r="P18">
-        <v>12.08484811080716</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.77928298141299</v>
+      </c>
+      <c r="R18">
+        <v>11.99357980179376</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.119500870857206</v>
+        <v>6.61068411398113</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.240735145964736</v>
+        <v>4.312894627940506</v>
       </c>
       <c r="E19">
-        <v>11.72817791429114</v>
+        <v>11.5507277229611</v>
       </c>
       <c r="F19">
-        <v>24.9617961224863</v>
+        <v>24.68547197742722</v>
       </c>
       <c r="G19">
-        <v>34.59061009859303</v>
+        <v>33.8781769712044</v>
       </c>
       <c r="H19">
-        <v>3.516661301524408</v>
+        <v>3.50266613345463</v>
       </c>
       <c r="I19">
-        <v>2.951045884616438</v>
+        <v>2.7902550570745</v>
       </c>
       <c r="J19">
-        <v>10.5654200071184</v>
+        <v>10.97543772538059</v>
       </c>
       <c r="K19">
-        <v>13.73081963324165</v>
+        <v>13.07611652525863</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.76832828715261</v>
       </c>
       <c r="M19">
-        <v>19.41700505025576</v>
+        <v>8.499008798235108</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.87173430001228</v>
+        <v>19.42069654028646</v>
       </c>
       <c r="P19">
-        <v>12.12044883688078</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.95563406877506</v>
+      </c>
+      <c r="R19">
+        <v>12.01099741880448</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.996428217327849</v>
+        <v>6.347704315847845</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.048347464298767</v>
+        <v>4.135893536128106</v>
       </c>
       <c r="E20">
-        <v>16.85017401243254</v>
+        <v>16.67600349374408</v>
       </c>
       <c r="F20">
-        <v>27.0855782358588</v>
+        <v>26.64532828969321</v>
       </c>
       <c r="G20">
-        <v>38.30081612712078</v>
+        <v>37.67613537299052</v>
       </c>
       <c r="H20">
-        <v>2.890095332499107</v>
+        <v>2.863537594669992</v>
       </c>
       <c r="I20">
-        <v>2.87859564540699</v>
+        <v>2.731880592837932</v>
       </c>
       <c r="J20">
-        <v>11.28411676585491</v>
+        <v>11.47985027206026</v>
       </c>
       <c r="K20">
-        <v>14.07504037107364</v>
+        <v>13.30307003939057</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.92004487389436</v>
       </c>
       <c r="M20">
-        <v>20.12260491818926</v>
+        <v>8.717110179288472</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.46135770263794</v>
+        <v>20.13790913316657</v>
       </c>
       <c r="P20">
-        <v>12.13325883595206</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.54486289415542</v>
+      </c>
+      <c r="R20">
+        <v>11.99052036176474</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.360612099282575</v>
+        <v>6.663652772493332</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.088741685890503</v>
+        <v>4.251017831063547</v>
       </c>
       <c r="E21">
-        <v>18.15825430919741</v>
+        <v>18.02545345005017</v>
       </c>
       <c r="F21">
-        <v>28.49671312506567</v>
+        <v>27.46626177121423</v>
       </c>
       <c r="G21">
-        <v>40.51863075872567</v>
+        <v>41.37606655095778</v>
       </c>
       <c r="H21">
-        <v>3.212389147359147</v>
+        <v>3.165420464115952</v>
       </c>
       <c r="I21">
-        <v>2.743494907482841</v>
+        <v>2.62596563738204</v>
       </c>
       <c r="J21">
-        <v>11.62286706232914</v>
+        <v>10.58010744549959</v>
       </c>
       <c r="K21">
-        <v>13.97046512075023</v>
+        <v>13.08741040015257</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.72013445014597</v>
       </c>
       <c r="M21">
-        <v>21.32961873008738</v>
+        <v>8.661467378300831</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.81308079921543</v>
+        <v>21.15498227955259</v>
       </c>
       <c r="P21">
-        <v>11.93269493464144</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20.80329547076683</v>
+      </c>
+      <c r="R21">
+        <v>11.77644580268904</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.632949068119117</v>
+        <v>6.911851142438394</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.12142758001616</v>
+        <v>4.337855262084092</v>
       </c>
       <c r="E22">
-        <v>18.74614474031709</v>
+        <v>18.64426769537685</v>
       </c>
       <c r="F22">
-        <v>29.34668877704063</v>
+        <v>27.91339408311337</v>
       </c>
       <c r="G22">
-        <v>41.83613785438951</v>
+        <v>43.71803200342086</v>
       </c>
       <c r="H22">
-        <v>3.40627449811878</v>
+        <v>3.346147125390101</v>
       </c>
       <c r="I22">
-        <v>2.646163034473691</v>
+        <v>2.544883194721458</v>
       </c>
       <c r="J22">
-        <v>11.82536875018667</v>
+        <v>9.929194700110573</v>
       </c>
       <c r="K22">
-        <v>13.90811257440902</v>
+        <v>12.94684769506602</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.59700187236017</v>
       </c>
       <c r="M22">
-        <v>22.06189308473549</v>
+        <v>8.633065456287726</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.50967402387468</v>
+        <v>21.75597239571992</v>
       </c>
       <c r="P22">
-        <v>11.80133075727726</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>21.43534273370715</v>
+      </c>
+      <c r="R22">
+        <v>11.63737349458317</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.524207520692662</v>
+        <v>6.803952974442137</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.102161756602922</v>
+        <v>4.2825745540542</v>
       </c>
       <c r="E23">
-        <v>18.43980189485573</v>
+        <v>18.31311773806663</v>
       </c>
       <c r="F23">
-        <v>28.91572142834741</v>
+        <v>27.7525521383822</v>
       </c>
       <c r="G23">
-        <v>41.17318515783608</v>
+        <v>42.33742997107048</v>
       </c>
       <c r="H23">
-        <v>3.303302763968023</v>
+        <v>3.251304399507617</v>
       </c>
       <c r="I23">
-        <v>2.68527044026265</v>
+        <v>2.572402670477859</v>
       </c>
       <c r="J23">
-        <v>11.72553587539617</v>
+        <v>10.41175791543998</v>
       </c>
       <c r="K23">
-        <v>13.96446064179401</v>
+        <v>13.04773765397994</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.67780201994167</v>
       </c>
       <c r="M23">
-        <v>21.66230330108927</v>
+        <v>8.671879753405333</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.13493531654407</v>
+        <v>21.45022449901827</v>
       </c>
       <c r="P23">
-        <v>11.87558774795215</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>21.10650855791935</v>
+      </c>
+      <c r="R23">
+        <v>11.71570161513261</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.030846055734026</v>
+        <v>6.367974154560335</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.030172807972116</v>
+        <v>4.117010969708934</v>
       </c>
       <c r="E24">
-        <v>17.2289625286209</v>
+        <v>17.05396776110661</v>
       </c>
       <c r="F24">
-        <v>27.22627995446169</v>
+        <v>26.7834648375819</v>
       </c>
       <c r="G24">
-        <v>38.55666639243271</v>
+        <v>37.90663752964247</v>
       </c>
       <c r="H24">
-        <v>2.906366302882418</v>
+        <v>2.879720053880688</v>
       </c>
       <c r="I24">
-        <v>2.858359491577934</v>
+        <v>2.707918551948148</v>
       </c>
       <c r="J24">
-        <v>11.33967513145376</v>
+        <v>11.54129771188899</v>
       </c>
       <c r="K24">
-        <v>14.14360090891119</v>
+        <v>13.35812814856</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.9601648772876</v>
       </c>
       <c r="M24">
-        <v>20.1096050207767</v>
+        <v>8.761402243479045</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.67016583978056</v>
+        <v>20.13011678341156</v>
       </c>
       <c r="P24">
-        <v>12.15069343755338</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.75593525475357</v>
+      </c>
+      <c r="R24">
+        <v>12.00337331858027</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.44586571270826</v>
+        <v>5.945903083259618</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.947990316213</v>
+        <v>4.007018149992563</v>
       </c>
       <c r="E25">
-        <v>15.83269587125395</v>
+        <v>15.69110885434037</v>
       </c>
       <c r="F25">
-        <v>25.36009922081134</v>
+        <v>25.06278040086963</v>
       </c>
       <c r="G25">
-        <v>35.64373978390501</v>
+        <v>34.92176901304032</v>
       </c>
       <c r="H25">
-        <v>2.462822245572612</v>
+        <v>2.449515723495141</v>
       </c>
       <c r="I25">
-        <v>3.055120544509983</v>
+        <v>2.870499770009636</v>
       </c>
       <c r="J25">
-        <v>10.93658225616887</v>
+        <v>11.27484478919811</v>
       </c>
       <c r="K25">
-        <v>14.34525049791174</v>
+        <v>13.60923217311709</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.23187634470598</v>
       </c>
       <c r="M25">
-        <v>18.31033588574163</v>
+        <v>8.823112514447015</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.97448335037915</v>
+        <v>18.31771879757327</v>
       </c>
       <c r="P25">
-        <v>12.44976528319114</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>18.05862830703074</v>
+      </c>
+      <c r="R25">
+        <v>12.29708906660639</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
